--- a/Getting_QnA_System/QnA2.xlsx
+++ b/Getting_QnA_System/QnA2.xlsx
@@ -12,255 +12,888 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
-  <si>
-    <t>Cho em hỏi học phí ngành KThuật Môi Trường là bao nhiêu/năm ? và trường có đặt hội đồng thi ở các tỉnh như Vĩnh Long hay Cần Thơ không ? em xin cảm ơn!</t>
-  </si>
-  <si>
-    <t>Chào em!Trường Đại học Nông Lâm TP.HCM đào tạo theo học chế tín chỉ, học phí mỗi tín chỉ là 122.000 đ, mỗi năm sinh viên được đăng ký tối đa 50 tín chỉ trong 2 học kỳ chính và 10 tín chỉ trong học kỳ hè nếu có nhu cầu. Năm 2013 trường tổ chức thi tại TP.HCM và các cụm thi tại Vinh, Quy Nhơn và Cần Thơ cho các thí sinh ở các khu vực trên và vùng phụ cận,Chúc em vui vẻ!PGĐ </t>
-  </si>
-  <si>
-    <t>thầy cô ơi cho em hỏi khi nào mới biết tỉ lệ chọi ạ?</t>
-  </si>
-  <si>
-    <t>Chào em!sau thời điểm nhận và tổng hợp hồ sơ, khoảng giữa tháng 5, Trường sẽ công bố có bao nhiêu hồ sơ dự thi vào trường.Chúc em may mắn!PGĐ</t>
-  </si>
-  <si>
-    <t>thầy cô ơi cho em hỏi khi nào thì công bố tỉ lệ chọi ạ?</t>
-  </si>
-  <si>
-    <t>Chào em!sau thời điểm nhận và tổng hợp hồ sơ, khoảng giữa tháng 5, Trường sẽ công bố có tổng số bao nhiêu hồ sơ dự thi vào trường.Chúc em may mắn!PGĐ</t>
-  </si>
-  <si>
-    <t>KÍNH THƯA PHÒNG ĐÀO TẠO: VUI LÒNG CHO EM XIN BẢNG ĐIỂM GỐC EM TÊN: TRẦN THỊ CHÚC LỚP : TC02TY(THÚ Y 19) EM XIN CHÂN THÀNH BIẾT ƠN!</t>
-  </si>
-  <si>
-    <t>Chào em!Em liên hệ Phòng đào tạo, gặp Thầy Quang để được hướng dẫn chi tiết nhéChúc em may mắn!PGĐ</t>
-  </si>
-  <si>
-    <t>KÍNH CHÀO QUÍ THẦY/CÔ, HIỆN EM ĐÃ TỐT NGHIỆP TẠI TRƯỜNG MÌNH, EM MUỐN HỌC TRUNG CẤP KẾ TOÁN CỦA TRƯỜNG. CHO EM HỎI NĂM 2013 TRƯỜNG CÓ XÉT TUYỂN HỆ TRUNG CẤP KHÔNG Ạ. XIN VUI LÒNG GIÚP EM VẤN ĐỀ THẮC MẮC NÀY Ạ.</t>
-  </si>
-  <si>
-    <t>Chào em!Trường Đại học Nông Lâm TP.HCM không đào tạo trình độ trung cấp em nhé.Chúc em may mắn!PGĐ</t>
-  </si>
-  <si>
-    <t>cho em hỏi học ngành công nghệ sinh học sau khi tốt nghiệp mình có thể làm việc tại các bệnh viện được k ạ cụ thể là khoa xét nghiệm</t>
-  </si>
-  <si>
-    <t> Chào bạn;Cơ hội nghệ nghiệp đối với sinh viên sau khi tốt nghiệp ngành Công nghệ Sinh học:+ Bệnh lý+ tư vấn về di truyền+ Phát triển sản phẩm cho mục đích trương mại+ Nghiên cứu và đào tạo+ Sản xuất dược phẩm: Insulin, hormone tăng trưởng, Vắc xin+ Các lĩnh vực truyền thống: rượu, bia…+ Các lĩnh vực công nghệ sinh học hiện đại: nghiên cứu tế bào gốc, nghiên cứu ung thư, biến đổi gen của thực vật+ Kỹ thuật tụ tinh trong ống nghiệm+ Xác định virus gây bệnh trên động, thực vật Làm việc trong lĩnh vực môi trường: Bảo tồn động thực vật có nguy cơ tuyệt chủng, kiểm soát ô nhiễm và xử lý chất thảiLàm việc tại các phòng thí nghiệm của các Sở nghiên cứu khoa học, các Viện nghiên cứu, trung tâm nghiên cứu,..Làm việc trong các phòng thí nghiệm khoa học pháp y như trong cơ quan cảnh sát. ( ví dụ: xác định DNA thong qua dấu vân tay)Làm việc trong các cơ quan quản lý, kiểm soát dịch bệnh.  Ngành công nghệ sinh học trường ĐH Nông Lâm đào tạo những kiến thức cơ bản và chuyên ngành về ứng dụng công nghệ sinh học. Trong đó có đào tạo các kỹ thuật chẩn đoán hay còn gọi là xét nghiệm bệnh trên người, động vật, thực vật, thủy sản và trên thực phẩm. Như các môn: kỹ thuật sinh học phân tử, PCR nâng cao, ELISA nâng cao, sắc ký, kỹ thuật thụ tinh trong ống nghiệm ... Nhiều sinh viên BM công nghệ Sinh học ĐH Nông Lâm sau khi tốt nghiệp hiện đang công tác tại các phòng xét nghiệm chẩn đoán bệnh thuộc bệnh viện nhiệt đới, Từ Dũ, Pasteur... Chúc bạn học tốt</t>
-  </si>
-  <si>
-    <t>Em tên Minh Tiến, lớp trưởng lớp DH12Sp! Em có thắc mắc là trong thông báo lịch học quân sự có để danh sách kèm theo nhưng em không thấy danh sách. Vậy danh sách đó em có thể lấy ở đâu, hay lớp trưởng phải tổng hợp nộp lên PĐT ạ! Rất mông nhận được câu trả lời sớm nhất từ quý thầy cô!</t>
-  </si>
-  <si>
-    <t>Chào em!Em nên liên hệ phòng đào tạo, gặp Thầy Cường để được hướng dẫn cụ thể hơn nhéChúc em vui vẻ!PGĐ</t>
-  </si>
-  <si>
-    <t>cho em hỏi là ngành nông học trong đó là mình học những gi?</t>
-  </si>
-  <si>
-    <t> Võ Thái Dân Chúc em thành công! Sau khi ra trường, Kỹ sư ngành Nông học có thể làm việc ở nhiều loại cơ quan, ngành nghề khác nhau; có thể chia làm ba nhóm chính: nhóm nghiên cứu giảng dạy; nhóm quản lý nhà nước về Nông nghiệp và nhóm kinh doanh dịch vụ. Ngành Nông học cung cấp cho sinh viên các kiên thức, kỹ năng về các lĩnh vực liên quan đến sản xuất cây trồng: going, phân bón, Bảo vệ cây trồng, Các kỹ thuật chăm sóc cây trồng...Xin chào,</t>
-  </si>
-  <si>
-    <t>dạ e chào cô,cô cho e hỏi câu một môn tư tưởng có phải trả lời ở phần 2 nhỏ trang 4 trong giáo trình đúng không ạ và những câu hỏi mở rộng e muốn tham khảo thêm tài liệu của cô thì cô có thể gửi tài liệu cho e được không ạ.E cám ơn cô nhiều và e mong nhận đươc câu trả lời của cô.</t>
-  </si>
-  <si>
-    <t> em học mục 2 trang 4 là đúng rồi, còn nội dung vận dụng thì tuần sau xem ở web giàng viên</t>
-  </si>
-  <si>
-    <t>Đã hết thời gian nhận hồ sơ đăng ký dự thi DH CD em co thể nộp hồ sơ được nữa không ???</t>
-  </si>
-  <si>
-    <t>Chào em!Rất tiếc thời hạn nộp hồ sơ đã chấm dứt từ 17h ngày 22/04/2013Chúc em may mắn!PGĐ</t>
-  </si>
-  <si>
-    <t>Thưa thầy trong cuốn Những Điều Cần Biết Tuyển Sinh ĐH,CĐ mà trường cấp 3 bán cho học sinh trong đó có ghi ĐHNL nghành kinh tế nhưng em ko thấy ghi 2 chuyên nghành Kinh Tế Nông Lâm và Kinh Tế Tài Nguyên Môi Trường của nghành đó. Vậy nên em chỉ ghi mã nghành và nghành là Kinh Tế. Em muốn học chuyên nghành Kinh Tế Nông Lâm. Ghi như vậy thì có vấn đề gì không thầy ?</t>
-  </si>
-  <si>
-    <t>Chào em!Trong hồ sơ em nên ghi rõ tên ngành và chuyên ngành cùng mã ngành, tuy nhiên nếu em chỉ ghi tên tên ngành và mã ngành cũng không sao vì sau năm học thứ nhất Trường mới tiến hành phân chuyên ngành theo khả năng và nguyện vọng của sinh viên.Chúc em vui vẻ!PGĐ </t>
-  </si>
-  <si>
-    <t>co the cho e de thi cao hoc mon cong nghe sinh hoc truong nong nghiep hai nam gan day dk ko</t>
-  </si>
-  <si>
-    <t> Chào bạn.Về vấn đề bạn hỏi, rất tiếc Phòng không thể hỗ trợ bạn được.Trân trọng.</t>
-  </si>
-  <si>
-    <t>thưa thầy cho em hỏi ngành tài nguyên và môi trường điểm sàn sao vậy thầy</t>
-  </si>
-  <si>
-    <t>Khoảng 14 - 16 cho khối A, 15 - 17 cho khối B.Khoa MTTN</t>
-  </si>
-  <si>
-    <t>trường mình có đào tạo văn bằng 2 ngành anh văn không thưa thầy?cách để đăng kí học là như thế nào?em là sinh viên năm nhất của trường.em dự định là khi em hoàn thành xong ngành của mình thì em sẽ tiếp tục học thêm bằng anh văn trong trường nửa.em chân thành cảm ơn.</t>
-  </si>
-  <si>
-    <t>Chào em!Hiện nay, Trường chưa đào tạo văn bằng 2 ngành Ngôn ngữ Anh em nhéChúc em vui vẻ!PGĐ</t>
-  </si>
-  <si>
-    <t>dai hoc nong lam co xet tuyen he TCCN 2013 ko?</t>
-  </si>
-  <si>
-    <t>Chào em!Năm 2013, Trường không tổ chức xét tuyển và đào tạo hệ Trung cấp.chúc em vui vẻ!PGĐ</t>
-  </si>
-  <si>
-    <t>lịch thi và ôn tập hệ sau đại học là chừng nào thế?</t>
-  </si>
-  <si>
-    <t> Chào bạn!Mời bạn them thông báo theo link sau: http://pgo.hcmuaf.edu.vn/contents.php?ids=16716&amp;ur=pgoTrân trọng.</t>
-  </si>
-  <si>
-    <t>thay / co cho em hỏi, năm nay trường có tuyển sinh văn bằng 2 ngành ngôn ngữ Anh không ? nếu có thời gian là khi nào.Em xin cám ơn quý thầy cô.</t>
-  </si>
-  <si>
-    <t>Chào em!Hiện tại Trường chưa tuyển sinh văn bằng 2 ngành Ngôn ngữ Anh em nhéchúc em vui vẻ!PGĐ</t>
-  </si>
-  <si>
-    <t>cho em hỏi điểm môn kĩ thuật nuôi cá của em đã được sửa trên phòng đào tạo rồi sao bảng điểm của em vẫn chưa được chỉnh sửa...mong thầy xem lại cảm ơn thầy</t>
-  </si>
-  <si>
-    <t>Chào em!Em liên hệ Phòng đào tạo, in bảng điểm cá nhân và kiểm tra lại nhéchúc em vui vẻ!PGĐ</t>
-  </si>
-  <si>
-    <t>Kính chào quý thầy cô! Tôi muốn hỏi lịch ôn thi sau đại học hầu hết là trong giờ hành chánh. Nếu chúng tôi nộp lệ phí ôn thi nhưng không thể học ôn đầy đủ được (vì lý do công việc) thì chúng tôi có được tham gia dự thi không?</t>
-  </si>
-  <si>
-    <t> Chào bạn!Việc ôn thi và thi tuyển hoàn toàn không bắt buộc với bất cứ cá nhân nào. Nhưng thiết nghĩ Anh, Chị đã đăng ký nên tranh thủ thwoif gian dể việc ôn thi đạt hiệu quả hơn.Trân trọng </t>
-  </si>
-  <si>
-    <t>Kính chào quý Thầy Cô! Em thấy Trường mình có liên kết với Trường Đại học Bạc liêu đào tạo chương trình thạc sĩ. vậy cho e hỏi là trường sẽ liên kết với Đại học Bac liêu đào tạo những ngành nào? e xin cám on.</t>
-  </si>
-  <si>
-    <t> Chào bạn.Mời bạn xem thông báo tuyển sinh Sau đại học của trường ĐH Nông Lâm TP. HCM liên kết với đại học Bạc Liêu.http://pgo.hcmuaf.edu.vn/data/ts%20sdh%20baclieu.pdfTrân trọng!</t>
-  </si>
-  <si>
-    <t>Em là Trần Trung Hậu Sinh viên năm 2.Thầy (cô) cho em hỏi em muốn đăng kí học lại quân sự nhưng hiện tại em đang học có những môn 3 chỉ.em muốn xin giấy giới thiệu học lại quân sự vậy bao giờ em xin giấy là được?em chân thành cảm ơn</t>
-  </si>
-  <si>
-    <t>Chào em!Em liên hệ Phòng Đào tạo, gặp Thầy Quang để được hướng dẫn chi tiết và cấp giấy giới thiệu nhéChúc em vui vẻ!PGĐ</t>
-  </si>
-  <si>
-    <t>em la sinh viên khóa 2012 năm nhất , xin cho em hỏi khi nào thì bắt đàu học quân sự vậy .</t>
-  </si>
-  <si>
-    <t>Chào em!Hiện nay đã có lịch học quân sự, em lên trang web của phòng Đào tạo để biết thêm chi tiết nhé.chúc em vui vẻ!PGĐ</t>
-  </si>
-  <si>
-    <t>Cho tôi hỏi: Tôi tốt nghiệp đại học sư phạm kĩ thuật TPHCM chuyên ngành Kĩ thuật nữ công năm 2002. Vậy tôi có thể thi cao học ngành công nghệ thực phẩm trường mình được không ? Và nếu có bằng 2 anh văn vừa học vừa làm có được miễn thi anh văn đầu vào cao học không? Trong khi chờ đợi, tôi xin chân thành cảm ơn.</t>
-  </si>
-  <si>
-    <t> Chào bạn!Theo Danh mục ngành gần của ngành Công nghệ thực phẩm hiện tại không có ngành Kỹ thuất nữ công, nhưng thiết nghĩ bạn nên trình bảng điểm học đại học về phòng Sau đại học để Phòng sẽ xem xét.Còn về vấn đề thi đầu vào, tất cả các thí sinh đều bắt buộc thi đầu vào cả 3 môn. Không có trường hợp ưu tiên.Trân trọng!</t>
-  </si>
-  <si>
-    <t>cho e hỏi là tất cả các môn học của em kết thúc hết rồi nhưng em lại có tên trong ds hoc giáo dục quốc phòng đợt 2 em muốn chuyển sag đọt 1 học cùng lớp được không ạ.em mong nhận được câu trả lời sớm từ phòng đào tạo.em xin cám ơn</t>
-  </si>
-  <si>
-    <t>Chào em!Em liên hệ Phòng Đào tạo, gặp Thầy Cường hoặc Thầy Chất để được xem xét giải quyết nhéchúc em vui vẻ!PGĐ</t>
-  </si>
-  <si>
-    <t>Em là sinh viên khóa 38, thời gian tới em học quân sự là đợt 1, nhưng do có việc nên em có thể xin chuyển qua đợt 2 học được ko ạ ? Em mong thầy cô trả lời sớm dùm em.</t>
-  </si>
-  <si>
-    <t>Chào em!Em liên hệ Phòng Đào tạo, gặp Thầy Cường hoặc Thầy Chất để được xem xét giải quyết nhé.chúc em vui vẻ!PGĐ</t>
-  </si>
-  <si>
-    <t>Chào quý thầy cô, hiện en là sinh viên năm nhất, nhà trường phân lịch học quân sự cho em vào đợt 2, nhưng e có việc bận trong khoảng thời gian đo, nên em muốn xin chuyển vào học đợt 1 có được không ạ. Nếu được thì cho em hỏi em phải gặp ai, làm thủ tục như thế nào? Em xin chân thành cảm ơn!</t>
-  </si>
-  <si>
-    <t>Chào em!Em liên hệ Phòng đào tạo, gặp Thầy Cường hoặc Thầy Chất để được xem xét và giải quyết nhéchúc em vui vẻ!PGĐ</t>
-  </si>
-  <si>
-    <t>Kính chào quí Thầy Cô! đầu tháng 4 năm trước em có bị va cham tai nạn giao thông nhưng luc đó không co vào bệnh viên, đến cuối tháng thì em bị đau và nhập viên gấp. Bac sĩ chỉ định phải mổ nhưng đang lúc thi học kì nên chỉ uống thuốc giảm đau để bớt đau về thi tiêp. Tháng 3 vừa rồi em phải mổ (thoát vị đĩa đệm cột sống ở lưng). Trong thoi gian 3 tuan nằm viên em đã được hưởng bảo hiểm y tế, em cũng có tham gia bảo hiểm tai nạn thế thì em có được hưởng bảo hiểm tai nan nữa không ạ? Nếu có thì liên hệ ở đâu và thủ tục thế nào ạ? Em xin cảm ơn!</t>
-  </si>
-  <si>
-    <t>Cô chào Linh,Theo như lời em kể thì em có bị va chạm tai nạn giao thông vào năm rồi (tức là năm 2012) phải không em? Nếu lúc đó em làm thủ tục bảo hiểm tai nạn thì được em ah.Còn tháng 3 năm 2013 vừa qua, em phải nhập viện để mổ vì lý do thoát vị đĩa đệm cột sống ở lưng (theo chẩn đoán của bác sĩ) thì lại không được hưởng chế độ của bảo hiểm tai nạn nữa em ah. ---Nếu em muốn tìm hiểu thêm những điều còn chưa rõ thì em gọi cho Cô qua số điện thoại : 0979 447 918, hoặc 091 2662 179. (Cô Hòa) Hoặc email : ngochoa267@yahoo.comMong em sớm bình phục sức khỏe, học tập tốt!Thân chào em,</t>
-  </si>
-  <si>
-    <t>Việt Nam là nước xuất khẩu cà phê thứ 2 thế giới, em rất thích lĩnh vực rang xay cà phê, lĩnh vực này rất nhiều tiềm năng. Em đang tìm kiếm nơi có dạy ngành rang xay cà phê, nhưng không tìm thấy. Cho em hỏi tại trường Nông Lâm TP HCM có ngành nào liên quan đến việc rang xay và chế biến cà phê không ạ? Nếu không có thì em có thể học ở đâu ngành rang, xay cà phê ạ? Em chân thành cảm ơn quý thầy cô!</t>
-  </si>
-  <si>
-    <t>Chào em!Trường Đại học Nông Lâm TP.HCM có ngành Bảo quản và chế biến nông sản thực phẩm, đào tạo cho sinh viên những kiến thức cơ bản về công nghệ chế biến nông sản. Em có thể theo học và nghiên cứu sâu hơn về lĩnh vực mà em yêu thích.Chúc em vui vẻ!PGĐ</t>
-  </si>
-  <si>
-    <t>em vừa tốt nghiệp đại học năm 2013, chuyên ngành quản lý đất đai, hiện e muốn học thạc sỹ chuyên ngành, xin hỏi trường Nông Lâm hiện còn đào tạo không? và thời gian tuyển sinh như thế nào? xin cám ơn !</t>
-  </si>
-  <si>
-    <t> Chào bạn.Năm 2013, Trường Đại học nông Lâm TP. HCM tạm ngưng tuyển sinh Thạc sỹ chuyên ngành quản lý đất đai.Trân trọng.</t>
-  </si>
-  <si>
-    <t>Chào thầy(cô)! Em tên là Trương Công Chung lớp DH11QR. Trước tiên em có câu hỏi được thầy cô giải đáp cho em thắc mắc sau: Năm nhất nhà trường có tổ chức học quân sự cho lớp em, nhưng vì lý do riêng em không thể đi học cùng lớp được. Vậy giờ em muốn học quân sự thì em phải làm thế nao ạ. Mong thầy(cô) giúp đỡ em. Em xin chân thành cảm ơn!</t>
-  </si>
-  <si>
-    <t>Chào em,Em liên hệ Phòng đào tạo để xin giấy giới thiệu đi học quân sự, sau đó mang giấy này qua bên Trung tâm Giáo dục Quốc phòng đăng ký nhé ! Thân!</t>
-  </si>
-  <si>
-    <t>toi la sv truong khac nay toi mum chuyen ra truong dhnl o gia lai . toi phai lam nhu the nao</t>
-  </si>
-  <si>
-    <t>Chào bạn!Bạn liên hệ Phòng Đào tạo trường bạn đang theo học và Phòng Đào tạo trường Đại học Nông Lâm TP.HCM để được hướng dẫn chi tiết hơn nhé.chúc bạn vui vẻ!PGĐ</t>
-  </si>
-  <si>
-    <t>Đã trả lời câu hỏi này. Xem lại câu trả lời  STT 85189</t>
-  </si>
-  <si>
-    <t>thầy ơi, em muốn học quốc phòng sớm được không ạ?</t>
-  </si>
-  <si>
-    <t>Chào em!Lịch học quốc phòng đã được công bố cùng với danh sách sinh viên học được chia làm 2 đợt. Nếu em có bất kỳ sự thay đổi nào, đề nghị trực tiếp lên Phòng đào tạo để được hướng dẫn chi tiết.chúc em vui vẻ!PGĐ</t>
-  </si>
-  <si>
-    <t>thầy cô cho em hỏi em muốn thay đổi một chút hồ sơ cá nhân của em thì phải làm sao ạ. Mong thầy cô giúp đỡ để em hiểu thêm. Em xin cảm ơn thầy cô, chúc thầy cô sức khỏe và thành đạt.</t>
-  </si>
-  <si>
-    <t>Chào em!Em muốn thay đổi thông tin cá nhân trong hồ sơ mà trường đang quản lý, cần mang đầy đủ các giấy tờ chứng minh và xác nhấn sự thay đổi, liên hệ trực tiếp Phòng đào tạo để được hướng dẫn và điều chỉnh.chúc em vui vẻ!PGĐ</t>
-  </si>
-  <si>
-    <t>Em xin chào thầy cô. Em muốn hỏi là: em đã ký bản cam kết khi em mới bước chân vào học nghành sư phạm kỹ thuật và được miễn học phí nhưng giờ em muốn hủy bản cam kết thì có được không? Nếu hủy được bản cam kết thì em phải nạp lại học phí phải không ạ? Em xin cảm ơn thầy cô nhiều.</t>
-  </si>
-  <si>
-    <t>Chào em!Em liên hệ Phòng đào tạo để được hướng dẫn cụ thể hơn nhéChúc em vui vẻ!PGĐ</t>
-  </si>
-  <si>
-    <t>Quí thầy cô cho em hỏi, hiện em đag nghỉ học vì bị nợ học phí của trường, bây h em hoàn thành xong học phí thì có thể tiếp tục theo học tại trường đc nữa ko hay sẽ bị thôi học ? Mong quí thầy cô giải đáp thắc mắc cho em,em xin chân thành cảm ơn!</t>
-  </si>
-  <si>
-    <t>chào em,Em đang tự ý nghĩ học hay nhà trường buộc thôi học em.Nếu nhà trường chưa có quyết định buộc thôi học thì em phải nhanh chóng liên hệ phòng đào tạo, giáo vụ khoa, phòng kế hoạch tài chính để có thể hoàn thành học phí và tiếp tục việc học em nhé.Chúc em thành côngCô Kim</t>
-  </si>
-  <si>
-    <t>Em muốn lan cấy mô của khoa CNSH, vậy thì phải liên hệ với thầy cô nào,xin khoa giúp em sđt và email của các thầy cô ấy. Xin cám ơn !</t>
-  </si>
-  <si>
-    <t>Chào bạn;Bạn vui lòng liên hệ địa chỉ mail: nhatram@hcmuaf.edu.vn ( Cô Tô Thị Nhã Trầm)Hoặc liện hệ trực tiếp tại VP. Bộ môn Công nghệ Sinh học (khu A1- Trường Đại học Nông Lâm Tp.HCM)Chúc bạn công tác tốt.Le Anh Thu</t>
-  </si>
-  <si>
-    <t>kính chào quý thầy cô! xin cho e được hỏi:Em la con người Dân Tộc, Em muốn đăng ký xét tuyển vào trường e cần phải làm gì?và mua hồ sơ ở đẩu?điều kiện xét như thế nào mới được vào trường học ah!và học phí như thế nào khi vào học ah! e xin chân thành cảm ơn quý thầy cô! lễ phép kính chào!</t>
-  </si>
-  <si>
-    <t>Chào em!Em liên hệ Sở Giáo Dục và Đào Tạo nơi em theo học để được hướng dẫn làm thủ tục, ngoài ra em có thể vào trang web tuyển sinh của Trường Đại Học Nông Lâm TP.HCM http://ts.hcmuaf.edu.vn/contents.php?ids=16855&amp;ur=ts để tham khảo thêm thông tin nhé.Chúc em vui vẻ!PGĐ</t>
-  </si>
-  <si>
-    <t>Thầy cô cho em hỏi :Em đăng kí dự thi ngành công nghệ sinh học của trường mình, nếu em đậu thì em có thể chuyển xuống ngành thú y không ạ? hoặc lỡ trượt nhưng điểm vẫn cao hơn ngành thú y thi có được học nghành này không ạ? Em muốn nộp thêm nghành thú y nữa mà giờ đã hết hạn nộp rồi!.Em đang rất băn khoăn do em nộp 2 trường: dh Nông Lâm với trường KHTN cùng một ngành CNSH luôn, khả năng của em vẫn vô được dh KHTN nhưng em thích học ngành thú y hơn!(còn ngành CNSH là gia đình khuyên em đi).Mong thầy cô có thể hồi âm sớm để em có quyết đinh đúng đắn khi lựa trường thi cho mình!!!Cảm ơn quý thầy cô!!!</t>
-  </si>
-  <si>
-    <t>Chào em!Sau khi có kết quả thi tuyển sinh đại học, cao đẳng nếu em không đậu ngành CNSH nhưng đủ tiêu chuẩn vào học ngành thú y và ngành thú y có tuyển sinh nguyện vọng bổ sung thì em làm hồ sơ xét tuyển nguyện vọng bổ sung nhé. Còn nếu em đậu CNSH nhưng muốn học ngành thú y thì sau khi nhập học em phải làm hồ sơ xin chuyển ngành nhé.chúc em thành công!PGĐ</t>
-  </si>
-  <si>
-    <t>Kính chào Quý thầy cô, tôi tốt nghiệp chuyên ngành Khuyến nông và phát triển nông thôn năm 2009 (loại Khá). Tôi muốn dự thi cao học chuyên ngành kinh tế nông nghiệp, tôi cần học chuyển đổi bổ túc kiến thức không, nếu có thì thời gian nào sẽ đăng kí học chuyển đổi ạ. Xin cảm ơn!</t>
-  </si>
-  <si>
-    <t> Chào bạn.Hiện tại, dựa trên thông tin bạn cung cấp Phòng ĐT Sau đại học chưa thể kết luận cho bạn. Mong Bạn liên hệ trục tiếp để được gải đáp cụ thể (Điện thoại P. ĐT Sau đại học: 08.38963339)Trân trọng</t>
-  </si>
-  <si>
-    <t>chao thay(co)!em muon dang ki hoc tai chuc nganh kinh te nong nghiep tai qui truong.vay khi nao thi co dot tuyen sinh?ho so mua o dau a?em xin cam on!</t>
-  </si>
-  <si>
-    <t>Chào bạn!Bạn xem thông tin tuyển sinh hệ vừa làm vừa học trên trang web tuyển sinh của trường nhé http://ts.hcmuaf.edu.vn/contents.php?ids=16805&amp;ur=tschúc bạn vui vẻ!PGĐ</t>
-  </si>
-  <si>
-    <t>Thưa quý thầy cô phụ trách đào tạo đại học và sau đại học, Hiện em đã hoàn thành khóa luận tốt nghiệp và còn 3 môn ở học kì này để hoàn thành đủ tín chỉ xét tốt nghiệp. Kết thúc học kì này, theo lịch trường là tháng 8 có đợt xét tốt nghiệp thì em có thể kịp đăng ký thi cao học vào đợt tháng 8 này ko ạ? Nếu thời gian ở phòng đào tạo xét tốt nghiệp quá lâu thì em có thể xin chứng nhận ở khoa hay ở đâu để thi kịp đợt học cao học này ko? Vì nếu trễ đợt này em phải về quê chờ thêm 1 năm nữa, sẽ là rất dài... Mong quý thầy cô hồi đáp giúp em sớm. Em chân thành cám ơn</t>
-  </si>
-  <si>
-    <t> Chào ban!Trường luôn tạo điều kiện cho các bạn có thể tham gia tuyển sinh và học Cao học thuận lợi và phục vụ công tác chuyên môn. Mong bạn sớm liên lạc trực tiếp với Phòng ĐT Sau đại học để được tư vấn và hướng dẫn cụ thể.Trân trọng</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="294">
+  <si>
+    <t>chào, cho em hỏi nghành công nghệ thực phẩm không học chương trình đào tạo tiến tiến được không?</t>
+  </si>
+  <si>
+    <t> Được bạn ạ. Hiện tại trường vẫn tuyển sinh ngành Công nghệ Thực phẩm bình thường.Thân </t>
+  </si>
+  <si>
+    <t>cho em hỏi là cơ hội nghề nghiệp của ngành công nghệ sinh học là như thế nào? điểm chuẩn nv1ngành này năm nay có thay đổi gì không a? có xét tuyển nv2 ko a?va có các chuyên ngành nào a?</t>
+  </si>
+  <si>
+    <t>Chào bạn;  Công nghệ Sinh học, có chuyên ngành:+Công nghệ Sinh học+ Công nghệ Sinh học môi trường-         Cơ hội nghệ nghiệp đối với sinh viên sau khi tốt nghiệp ngành Công nghệ Sinh học:+ Bệnh lý+ tư vấn về di truyền+ Phát triển sản phẩm cho mục đích trương mại+ Nghiên cứu và đào tạo+ Sản xuất dược phẩm: Insulin, hormone tăng trưởng, Vắc xin+ Các lĩnh vực truyền thống: rượu, bia…+ Các lĩnh vực công nghệ sinh học hiện đại: nghiên cứu tế bào gốc, nghiên cứu ung thư, biến đổi gen của thực vật+ Kỹ thuật tụ tinh trong ống nghiệm+ Xác định virus gây bệnh trên động, thực vật -         Làm việc trong lĩnh vực môi trường: Bảo tồn động thực vật có nguy cơ tuyệt chủng, kiểm soát ô nhiễm và xử lý chất thải-         Làm việc tại các phòng thí nghiệm của các Sở nghiên cứu khoa học, các Viện nghiên cứu, trung tâm nghiên cứu,..-         Làm việc trong các phòng thí nghiệm khoa học pháp y như trong cơ quan cảnh sát. ( ví dụ: xác định DNA thong qua dấu vân tay)-         Làm việc trong các cơ quan quản lý, kiểm soát dịch bệnh  - Năm nay Ngành Công nghệ Sinh học cũng không xét nguyện vọng 2.Chúc bạn thành côngLe Anh Thu </t>
+  </si>
+  <si>
+    <t>em muon hoc bao vethuc vat thoi gian 3 thang tai phan hieu gia lai thi lam cach nao de dang ky. em cam on</t>
+  </si>
+  <si>
+    <t>Chào em,Ở Phân hiệu Gia Lai hiện tại chỉ đào tạo bậc đại học, ngành Nông học, không có các lớp ngắn hạn về BVTV. Tuy nhiên, tại cơ sở chính (tại Tp. HCM), Khoa Nông học có thiết kế các khóa tập huấn ngắn hạn theo yêu cầu của khách hàng. Do đó, nếu em muốn học các khóa như vây, có thể liên hệ tại Văn phòng Khoa Nông học, gặp Cô Mỹ Dung, trong giờ hành chánh theo số điện thoại (08)38961710. Chúc em thành công!Võ Thái Dân</t>
+  </si>
+  <si>
+    <t>Kính chào các thầy cô trong ban tư vấn trực tuyến! Em muốn hỏi khi nào trường của mình có lịch ôn thi và tuyển sinh hệ sau đại học của năm 2003? Em muốn biết các thông tin chi tiết thì phải liên hệ với ai, như thế nào ạ? Em xin cảm ơn!</t>
+  </si>
+  <si>
+    <t>  Chào bạn!Thông tin tuyển sinh Sau đại học năm 2013 đã được đăng tải trên website của Phòng Đào tạo Sau đại họchttp://pgo.hcmuaf.edu.vn/contents.php?gid=3284&amp;ur=pgo. Dự kiến sẽ tổ chức thi vào tháng 8/2013. Tổng chỉ tiêu tuyển sinh sau đại học năm 2013 là 450.Hồ sơ tuyển sinh Cao học và dự tuyển Nghiên cứu sinh hiện đã có bán tại Phòng Đào tạo Sau đại học, và quản lý Sau đại học tại các Phân hiệu. Chi tiết liên hệ số điện thoại: 08.38963339 (Phòng Đào tạo sau đại học)Trân trọng.</t>
+  </si>
+  <si>
+    <t>cho em hỏi ngành nông học học những môn học nào? nó có liên quan gì dến ngành bảo vệ thực vật hay không?</t>
+  </si>
+  <si>
+    <t>Chào em,Chương trình ngành Nông học gồm những môn học cung cấp cho sinh viên các kiến thức và hiểu biết về các vấn đề liên quan đến sản xuất cây trồng. Bảo vệ thực vật là một trong những biện pháp kỹ thuật quan trọng trong sản xuất cây trồng, nên chắc chắn hai ngành này sẽ có liên quan với nhau. Chúc em thành công!Võ Thái Dân</t>
+  </si>
+  <si>
+    <t>em co the thi nho truong dai hoc can tho de xet qua dai hoc nong lam duoc khong?</t>
+  </si>
+  <si>
+    <t> Đại học Nông Lâm TPHCM có tổ chức cụm thi tại Cần Thơ, những thí sinh ở đồng bằng sông Cửu Long có nguyện vọng thi vào trường ĐH Nông Lâm TPHCM thì có thể đăng ký địa điểm thi ở Cần Thơ của trường Nông Lâm tổ chức (không phải thi nhờ ĐH Cần Thơ). Trong quá trình nộp hồ sơ các thầy cô trong trường PTTH sẽ hướng dẫn cho em điền hồ sơ.Thân </t>
+  </si>
+  <si>
+    <t>Trường đại học nông lâm Tp.HCM năm nay tổ chức thi ở Tp.HCM hay ở Tp.Vinh?Em là 1 học sinh trường cấp 3 có nguyện vọng thi vào trường này nhưng em sợ vào không kịp nên muốn hỏi</t>
+  </si>
+  <si>
+    <t>Trong hồ sơ đăng ký dự tuyển, em chọn cụm thi Vinh nhé !</t>
+  </si>
+  <si>
+    <t>Thua thầy em chọn nganh cong nghệ thực phẩm thì ra trường làm gì? còn nganh cong nghe thông tin tài nguyen môi trường thì ra trường lam gì?</t>
+  </si>
+  <si>
+    <t>Em vào đây để xem thông tin chi tiết về cơ hội việc làm khi học ngành Công nghệ môi trườnghttp://env.hcmuaf.edu.vn/Khoa MTTN</t>
+  </si>
+  <si>
+    <t>cho em hỏi năm nay ngành công nghệ sinh học co thi khối A1 không ạ</t>
+  </si>
+  <si>
+    <t> Chào Sơn; Công nghệ Sinh học tuyển sinh khối A&amp; B ( khối thi và môn thi của Bộ Giáo dục &amp; Đào tạo)Có ngành: Công nghệ Sinh học và chuyên ngành Công nghệ Sinh học môi trườngBạn muốn biết thêm chi tiết thì tham khảo wbsite: http://pdt.hcmuaf.edu.vn/    vào mục tuyển sinhChúc bạn một ngày vuiLe Anh Thu</t>
+  </si>
+  <si>
+    <t>Cho tôi hỏi hệ cao đẳng của trường là xét tuyển hay phải thi vô</t>
+  </si>
+  <si>
+    <t> Chào bạn,Hiện tại trường không thi tuyển hệ cao đẳng mà sẽ lấy kết quả từ thi tuyển Đại học để xét tuyển vào ngành Cao Đẳng. Bạn có thể liên hệ các nhà sách để trang bị cho mình cuốn cẩm nang tuyển sinh 2013 để biết thủ tục và cách thức xét tuyển nhé.Thân.</t>
+  </si>
+  <si>
+    <t>Em muốn thi ngành công nghiệp thực phẩm của trường. Em muốn hỏi về chỉ tiêu tuyển sinh năm 2013 của ngành này và điểm chuẩn dự kiến sẽ chênh lệch so với năm ngoái nhiều k ạ?</t>
+  </si>
+  <si>
+    <t> Tổng chỉ tiêu năm 2013 là 290 sinh viên em nhé. Điểm chuẩn của 2 năm 2011 và 2012 khối A là 13,5đ  - Khối B là 15,5 em nhé! </t>
+  </si>
+  <si>
+    <t>cho e hỏi trường có khối thi A1 không ?</t>
+  </si>
+  <si>
+    <t> Trường không tuyển sinh khối A1 em nhé.</t>
+  </si>
+  <si>
+    <t>cho em hỏi ngành quản lí đất đai DHNL năm ngoái lấy bao nhiêu điểm khối A,D1</t>
+  </si>
+  <si>
+    <t> Năm 2012 cả 2 khối đều lấy 14 điểm em nhé!</t>
+  </si>
+  <si>
+    <t>khoảng 15 điểm có khả năng đậu vào ngành khoa học môi trường du lịch sinh thái không ạ.em thi khối B</t>
+  </si>
+  <si>
+    <t>Em nên cố gắng đạt 17 điểmKhoa MTTN</t>
+  </si>
+  <si>
+    <t>Thầy cô cho em hỏi là ngành quản lí tài nguyên và môi trường sẽ học những gì? Và sau khi ra trường em có thể làm những công việc gì? Em xin chân thành cảm ơn !</t>
+  </si>
+  <si>
+    <t>Em xem thông tin chi tiết tại đâyhttp://env.hcmuaf.edu.vn/contents.php?ids=8753&amp;ur=envKhoa MTTN </t>
+  </si>
+  <si>
+    <t>Xin chào diễn đàn! Em muốn hỏi trường Đại Học Nông Lâm có bán giống tiêu ghép không ạ? Và nếu em mua thì sẽ đến địa chỉ nào để mua ạ? Em đang học tập và làm việc tại Tp.Hồ Chí Minh. Em xin cảm ơn!</t>
+  </si>
+  <si>
+    <t> Võ Thái Dân Hiện nay Khoa không có sẳn cây going; nhưng nếu Anh/Chị có nhu cầu, xin lien hệ, ký hợp đồng, chúng tôi sẽ cung cấp theo yêu cầu! Chúc thành công!Xin chào,</t>
+  </si>
+  <si>
+    <t>thưa thầy cô ngành kĩ thuật cơ khí thì xin việc ở đâu ạ?</t>
+  </si>
+  <si>
+    <t> 1. nGÀNH CÔNG NGHỆ KỸ THUẬT CƠ KHÍ.Gồm 2 chuyên ngành:-       Cơ khí chế biến bảo quản NSTP-       Cơ khí nông lâm1.1. CHUYÊN NGÀNH Ngành Cơ khí bẢo quẢn NSTP            Đào tạo Kỹ sư Cơ khí Bảo quản và Chế biến Nông sản-Thực phẩm có kiến thức cơ bản, dựa trên nền kỹ sư cơ khí nói chung và kiến thức chuyên sâu về các máy-thiết bị bảo quản-chế biến nông sản thực phẩm.Về chuyên môn, sinh viên được trang bị kiến thức về công nghệ, thiết bị các hệ thống điều hòa không khí, hệ thống nhiệt - lạnh phục vụ sản xuất và dân dụng, nhà máy điện, năng lượng; về vận hành, bảo dưỡng, sửa chữa các hệ thống điều hòa không khí, hệ thống nhiệt - lạnh phục vụ sản xuất và dân dụng, nhà máy điện, năng lượng. Sinh viên có kỹ năng:Thiết kế, chế tạo, lắp ráp máy và thiết bị, dây chuyền sản xuất và các trang thiết bị thuộc lĩnh vực công nghệ nhiệt lạnh; vận hành, khai thác, bảo trì các trang thiết bị thuộc lĩnh vực công nghệ nhiệt lạnh; xây dựng được kế họach, lập dự án phát triển sản xuất, tổ chức, điều hành tại các doanh nghiệp và cơ quan quản lý thuộc các ngành sản xuất nhiệt lạnhViệc làm sau khi tốt nghiệp: Khi tốt nghiệp, sinh viên có thể làm việc trong lĩnh vực cơ khí nói chung và tại các nhà máy chế tạo cơ khí, các nhà máy chế biến nông sản-thực phẩm thuộc các thành phần kinh tế hoặc các viện, trường, cơ quan nghiên cứu, tại các sở ở địa phương (như Sở Nông nghiệp và Phát triển nông thôn, Sở Khoa học &amp; Công nghệ, Sở Tài nguyên &amp; Môi trường, Sở Công nghiệp)..v.v. 1.2. CHUYÊN NGÀNH Cơ khí Nông Lâm         Đào tạo kỹ sư có kiến thức chuyên môn cơ khí cùng với kiến thức về công nghệ và kinh tế chuyên ngành liên quan như bảo quản và chế biến nông-lâm- thủy hải sản.          Về mặt chuyên môn, sinh viên được trang bị kiến thức về các quá trình, máy và thiết bị để sản xuất các chi tiết máy, máy cho các ngành sản xuất công – nông nghiệp; về cấu tạo, nguyên lý làm việc của các thiết bị động lực gồm: ô tô máy kéo, máy điện…; về cấu tạo, nguyên lý làm việc của các máy và thiết bị phục vụ cho việc cơ giới hóa một quá trình sản xuất nông nghiệp; về quản lý, lựa chọn các hệ thống máy phù hợp với quá trình sản xuất; về bảo trì, bảo dưỡng, khắc phục các nguyên nhân hư hỏng trong máy kéo, máy nông nghiệp.Việc làm sau khi tốt nghiệp: Khi tốt nghiệp, Kỹ sư ngành Cơ khí Nông lâm có thể làm việc trong các lĩnh vực cơ khí nói chung và các ngành cơ khí phục vụ phát triển nông thôn, các xí nghiệp cơ khí chế tạo máy, các xí nghiệp chế biến thức ăn gia súc, giao thông công chánh, các xí nghiệp chế biến nông lâm sản, các cơ quan xuất nhập khẩu máy, các xí nghiệp đông lạnh hoặc tự mình làm chủ một cơ sở sản xuất tổng hợp hoặc công tác tại các viện nghiên cứu, trường đại học, trung học chuyên nghiệp, trung tâm dạy nghề hay tại các Sở Nông nghiệp và Phát triển nông thôn, Sở Khoa học và Công nghệ, Sở Công nghiệp…</t>
+  </si>
+  <si>
+    <t>Kính chào quý thầy (cô) thầy (cô) cho em hỏi, là chuẩn đầu ra trường mình là b1, vậy khi ra trường có đc cấp chứng chỉ không</t>
+  </si>
+  <si>
+    <t> Nhà trường sẽ có quyết định công nhận chuẩn đầu ra tiếng Anh B1 cho các em. Không có cấp chứng chỉ nhé !</t>
+  </si>
+  <si>
+    <t>Cho em hỏi là học ngành bảo vệ thực vật sau khi ra trường có phải là ra bán thuốc trừ sâu không ?</t>
+  </si>
+  <si>
+    <t> Công việc của ngành Bảo vệ Thực vật: Việc làm sau khi tốt nghiệp: Được trang bị những kiến thức khá cơ bản và toàn diện về sinh học, bảo vệ thực vật, nông học và môi trường, kỹ sư bảo vệ thực vật dễ thích ứng với công việc đa dạng tại các cơ quan giảng dạy, nghiên cứu, quản lý khoa học công nghệ, chỉ đạo sản xuất và kinh doanh tại các tổ chức hay cơ sở nông lâm nghiệp, môi trường trong và ngoài nước, góp phần thực hiện tốt Pháp lệnh bảo vệ và kiểm dịch thực vật số 36/2001/PL-UBTVQH 10 ngày 25/7/2001, các Nghị định của Chính phủ và các Quyết định của Bộ Nông nghiệp và Phát triển nông thôn cũng như của các Bộ khác (Bộ Thương mại, Bộ Tài chính,…) có liên quan. Than </t>
+  </si>
+  <si>
+    <t>cho em hoi hoc phi nganh ke toan la bao nhieu 1 nam? em cam on!</t>
+  </si>
+  <si>
+    <t> My thân mến!Học phí của bậc đại học (chính quy) tính theo tín chỉ. Năm học 2012-2013 là 122000đ/tín chỉ.Thân </t>
+  </si>
+  <si>
+    <t>nganh lam nghiep tot nghiep se lam gi</t>
+  </si>
+  <si>
+    <t>Chao em,Sau tot nghiep em se lam nhung viec nhu sauVề mặt kiến thứcĐào tạo kỹ sư có hiểu biết toàn diện về mọi lĩnh vực hoạt động của ngành với những kiến thức về sinh thái học, lâm sinh, trồng rừng, điều tra, điều chế, bảo vệ, quản lý nguồn tài nguyên rừng với 03 hướng: lâm sinh, lâm nghiệp đô thị, lâm nghiệp xã hội.        Sinh viên có kiến thức cơ sở ngành về : Xã hội học, Xã hội học nông thôn, Sinh lý thực vật, Thống kê lâm nghiệp, Đất – lập địa, Thực vật rừng, sinh thái rừng, Khí tượng – thủy văn rừng;có kiến thức chuyên ngành về lĩnh vực lâm sinh: Kỹ thuật lâm sinh, Trồng rừng, Côn trùng lâm nghiệp, Bệnh hại rừng, Đo đạc và bản đồ, Đa dạng sinh học, Di truyền và giống cây rừng, Quản lý rừng bền vững, Kỹ thuật nhân giống, Lâm nghiệp đô thị, Điều tra rừng…Về mặt kỹ năngCác kỹ năng sinh viên tốt nghiệp có được như thực hiện được các nghiên cứu về về lĩnh vực lâm sinh; áp dụng và phát triển những kỹ thuật khai thác- tái sinh rừng, trồng rừng và nuôi dưỡng rừng, điều tra, đánh giá tài nguyên rừng, quy hoạch; chuyển giao tiến bộ khoa học kỹ thuật và công nghệ trong lĩnh vực lâm sinh; đề xuất, lựa chọn các giải pháp, cải tiến công nghệ nâng cao năng suất và chất lượng sản phẩm từ rừng; tham gia tập huấn, chuyển giao kỹ thuật, công nghệ chuyên ngành lâm sinhCơ hội việc làm Kỹ sư ngành lâm nghiệp có thể đảm trách công việc liên quan đến lĩnh vực lâm sinh: Các công ty, các doanh nghiệp lâm nghiệp; làm việc tại các trường, phòng Khoa học &amp; Công nghệ, các sở, phòng ban ở các tỉnh, huyện trong cả nước về lĩnh vực lâm nghiệp, khuyến nông, khuyến lâm; làm việc tại các viện điều tra qui hoạch, các trung tâm ứng dụng và triển khai lâm nghiệp, các trung tâm khuyến nông, khuyến lâm; giảng dạy ngành lâm nghiệp tại các trường đại học, cao đẳng và trung học chuyên nghiệp và các trường dạy nghề…Ngoài ra có thể làm chuyên gia tư vấn cho các chương trình, dự án về lĩnh vực phát triên nông lâm nghiệp và phát triển nông thôn các cấp.Chuc em thanh congKLN</t>
+  </si>
+  <si>
+    <t>Em đã đổi mật khẩu điểm rèn luyện, nhưng hiện tại em không nhớ mật khẩu đã đổi là gì? vậy em có thể xin lại mật khẩu được không? em xin cảm ơn.</t>
+  </si>
+  <si>
+    <t> Em liên hệ thầy Minh  (phòng CTSV) để được hướng dẫn nhé.Thân </t>
+  </si>
+  <si>
+    <t>Cho em hỏi, tỉ lệ tuyển sinh sau dh chuyên ngành công nghệ thực phẩm 2013 là bao nhiêu? Học phí ôn thi cao học 3 môn là bao nhiêu ạ? Xin cám ơn!</t>
+  </si>
+  <si>
+    <t> Chào bạn!Thông tin tuyển sinh Sau đại học năm 2013 đã được đăng tải trên website của Phòng Đào tạo Sau đại họchttp://pgo.hcmuaf.edu.vn/contents.php?gid=3284&amp;ur=pgo. Dự kiến sẽ tổ chức thi vào tháng 8/2013. Tổng chỉ tiêu tuyển sinh sau đại học năm 2013 là 450. Học phí ôn thi là lịch ôn thi sẽ tiếp tục được cập nhật khoảng giữ tháng 4. Hồ sơ tuyển sinh Cao học và dự tuyển Nghiên cứu sinh hiện đã có bán tại Phòng Đào tạo Sau đại học, và quản lý Sau đại học tại các Phân hiệu. Chi tiết liên hệ số điện thoại: 08.38963339 (Phòng Đào tạo sau đại học)Trân trọng.</t>
+  </si>
+  <si>
+    <t>em muon hoc nghanh bsi thu y,vay khoi D dc thi kg ak</t>
+  </si>
+  <si>
+    <t>Chào em,Ngành BSTY chỉ tuyển sinh 2 khối thi A và B , không có khối D1. TT</t>
+  </si>
+  <si>
+    <t>e muốn thi vào truong đại học nông lâm ngành ngôn ngữ anh,cho e hỏi sau khi ra truong sẽ làm việc gi ạ? e có thể đăng kí thi trực tiếp ở truong được khong ạ?</t>
+  </si>
+  <si>
+    <t> Vị trí, khả năng công tác, khả năng nâng cao trình độ sau khi tốt nghiệp:1.        Sinh viên tốt nghiệp có đủ khả năng giảng dạy môn Tiếng Anh phổ thông và chuyên ngành tại các trường cao đẳng, phổ thông trung học và các trung tâm ngoại ngữ;2.        Sinh viên tốt nghiệp có đủ khả năng đảm nhiệm công tác quản trị văn phòng tạị các công ty, xí nghiệp trong nước và nước ngoài và các tổ chức xã hội khác;3.        Sinh viên tốt nghiệp có thể làm công tác biên phiên dịch tại các công ty và tổ chức quốc tế;4.        Có khả năng tự học và tinh tinh thần học tập suốt đời;có khả năng tiếp tục học ở các bậc sau đại học thuộc các chuyên ngành trong lĩnh vực ngôn ngữ và giảng dạy tiếng Anh.</t>
+  </si>
+  <si>
+    <t>cho em hoi nganh ki thuat moi ruong va nganh quan li tai nguyen moi co khac nhau khong? neu co, thi khac nhu the nao?</t>
+  </si>
+  <si>
+    <t>Em xem thông tin chi tiết tại đây http://env.hcmuaf.edu.vn/Vào trong mục các bộ mônKhoa MTTN</t>
+  </si>
+  <si>
+    <t>cho em hỏi khoa ngôn ngữ anh của trường đh nông lâm có những chuyên ngành nào?</t>
+  </si>
+  <si>
+    <t>Chào em,Ngành Ngôn ngữ Anh có 2 chuyên ngành: Tiếng Anh Quản lý, Tiếng Anh thương mại.  TT </t>
+  </si>
+  <si>
+    <t>ngành công nghệ sinh học học về gì?</t>
+  </si>
+  <si>
+    <t> Chào Phượng;Em vào xem khung chương trình đào tạo của ngành nhé: http://biotech.hcmuaf.edu.vn/contents.php?ids=5903&amp;ur=biotechThân.Le Anh Thu</t>
+  </si>
+  <si>
+    <t>Nganh khoa hoc moi truong sau khi ra truong se lam gi va lam o dau</t>
+  </si>
+  <si>
+    <t>Em vào đây để xem thông tin chi tiết về định hướng ngành nghề.Vào trong  mục các bộ mônhttp://env.hcmuaf.edu.vn/Khoa MTTN</t>
+  </si>
+  <si>
+    <t>da cho em hoi la hoc phi nganh bao ve thuc vat la bao nhieu vay?.em cam on.</t>
+  </si>
+  <si>
+    <t> Học phí là 122.000đ/tín chỉ.Thân </t>
+  </si>
+  <si>
+    <t>cho em hoi ki hieu cua truong dai hoc nong lam la gi?</t>
+  </si>
+  <si>
+    <t>Chào em,Ký hiệu của Trường DH Nông Lâm TP.HCM là NLS.   TT </t>
+  </si>
+  <si>
+    <t>cho em hoi hoc nganh tai nguyen va moi truong sau nay tot nghiep se ra lam nhung gi</t>
+  </si>
+  <si>
+    <t>Em vào đây và vào mục các bộ môn để biết định hướng ngànhhttp://env.hcmuaf.edu.vn/Khoa MTTN</t>
+  </si>
+  <si>
+    <t>em muon hoi truong la hoc phi trong 4 nam dai hoc cua nghanh thu y la bao nhieu. khi ra truong co hoi co viec lam cao khong</t>
+  </si>
+  <si>
+    <t> Học phí hệ đại học được tính theo tín chỉ em học. Mỗi tín chỉ là 122.000 đ (năm học 2012-2013). Mỗi năm em học khoảng 30 đến 50 tín chỉ. Ngành thú y học 5 năm em nhé.thân </t>
+  </si>
+  <si>
+    <t>em đang học ngành Nông học khóa 37. em muốn hỏi rằng: chuẩn đầu ra tin học của mình là như thế nào, nội dung thi, nếu em đã có bằng A tin học do trường Đh Nông Lâm cấp thì có cần thi chuẩn đầu ra không? Em xin chân thành cảm ơn!</t>
+  </si>
+  <si>
+    <t>Chào em,Theo tôi biết, hiện nay trường chưa ban hành chuẩn đầu ra tin học! Nhưng theo tôi khuyên, để phục vụ tốt cho công việc của em về sau, tối thiểu nên có chứng chỉ B tin học! Chúc thành công!Võ Thái Dân</t>
+  </si>
+  <si>
+    <t>cho e hoi dai hoc he VHVL la j</t>
+  </si>
+  <si>
+    <t>Vừa học vừa làm = Tại chức</t>
+  </si>
+  <si>
+    <t>ngành thiết kế cảnh quan học xong khả năng làm việc được ở những môi trường nào ạ?</t>
+  </si>
+  <si>
+    <t> Công việc sau khi ra trường của sinh viên ngành Cảnh quan như sau: Những kỹ sư CQKTHV có khả năng nghiên cứu, thực hiện việc thiết kế, thi công và quản lý các lãnh vực về cảnh quan và hoa viên, có cơ hội phát triển nghề nghiệp tại các cơ quan tư vấn, nghiên cứu hoặc sản xuất như: Văn phòng kiến trúc sư trưởng, Sở Quy hoạch - Kiến trúc, Sở Giao thông Công chánh, Sở Xây dựng, các Công ty Công viên &amp; Cây xanh, Công ty quản lý công trình công cộng ở các đô thị, các khu du lịch, khu chế xuất, khu công nghiệp, sân Golf, các Vườn Quốc Gia, Khu Bảo tồn Thiên nhiên, Khu Dự trữ sinh quyển, Khu Di tích lịch sử, các cơ sở khuyến xanh kinh doanh hoa kiểng, các công ty du lịch sinh thái hoặc có thể tự thành lập các công ty tư nhân.Thân </t>
+  </si>
+  <si>
+    <t>thầy cô cho e hỏi em muốn mua hồ sơ tuyển sinh sau đại học của trường mình ở đâu ạ.. mong thầy cô giúp đỡ..em xin cam ơn...</t>
+  </si>
+  <si>
+    <t> Chào bạn!Thông tin tuyển sinh Sau đại học năm 2013 đã được đăng tải trên website của Phòng Đào tạo Sau đại họchttp://pgo.hcmuaf.edu.vn/contents.php?gid=3284&amp;ur=pgo. Dự kiến sẽ tổ chức thi vào tháng 8/2013. Tổng chỉ tiêu tuyển sinh sau đại học năm 2013 là 450.Hồ sơ tuyển sinh Cao học và dự tuyển Nghiên cứu sinh hiện đã có bán tại Phòng Đào tạo Sau đại học, và quản lý Sau đại học tại các Phân hiệu. Chi tiết liên hệ số điện thoại: 08.38963339 (Phòng Đào tạo sau đại học)Trân trọng.</t>
+  </si>
+  <si>
+    <t>cho em hoỉ thời gian phúc khảo điểm học kỳ 1 năm 2012-2013 khi nào hết hạn ạ? Nếu không biết chính xác điểm thi mà chỉ biết điểm trung bình thì làm đơn phúc khảo có thể ghi điểm tb đó được không? Em có tìm trên trang web phòng đào tạo nhưng không thấy mẫu đơn yêu cầu tra điểm thi. Mong thầy cô giải đáp. Em cảm ơn.</t>
+  </si>
+  <si>
+    <t> Thời gian phúc khảo điểm thi học kỳ 1 năm học 2012 - 2013 tùy thuộc vào Khoa/BM nơi em theo học, riêng các môn học chung của trường em có thể xem thông báo tại trang web của trung tâm. Em có thể ghi chú vào trong đơn phúc khảo của mình là điểm trung bình. Nếu Khoa/BM đồng ý thì Ok. Ngược lại em phải liên hệ trực tiếp với Giảng viên để xin file photo. Trường hợp trang web phòng đào tạo không có mẫu đơn, thầy mới kiểm tra lại hình như phòng đào tạo đã gỡ xuống. Em thử liên hệ Phòng đào tạo thử xem.</t>
+  </si>
+  <si>
+    <t>bao nhieu diem moi duoc vao cao dang cua truong</t>
+  </si>
+  <si>
+    <t> Tùy theo ngành em ạ. Lấy từ điểm sàn là 10 điểm trở lên.Thân </t>
+  </si>
+  <si>
+    <t>cho em hoi ma truong cua truong dai hoc nong lam tp hcm</t>
+  </si>
+  <si>
+    <t>Chào bạn!Mã trường Đại Học Nông Lâm TP. Hồ Chí Minh là NLS, bạn có thể tìm hiểu mã trường và mã ngành trong cuốn Những Điều Cần Biết về kỳ thi tuyển sinh Đại Học, Cao Đẳng năm 2013.Chúc bạn thành công!PGĐ</t>
+  </si>
+  <si>
+    <t>kính chào thầy cô, cho em hỏi nếu em đăng kí thi đại học khoa nông học, nhưng khi học được một thời gian em muốn sang khoa khác học. như vậy có được không ạ</t>
+  </si>
+  <si>
+    <t>Xin chào,Tại sao em lại tự làm khó cho mình vậy? Tại sao em không đăng ký thi ở ngành em muốn học? Theo quy định, sinh viên không được phép chuyển ngành, trừ một số trường hợp ngoại lệ! Chúc em thành công!Võ Thái Dân</t>
+  </si>
+  <si>
+    <t>nganh ky thuat moi truong khac voi nganh quan li moi truong nhu the nao. co hoi viec lam cua nganh ky thuat moi truong, ra truong co the lam o dau.</t>
+  </si>
+  <si>
+    <t>Em vào đây để xem thông tin chi tiết về sự khác nhau của 2 ngành. Vào trong mục Bộ mônhttp://env.hcmuaf.edu.vn/Khoa MTTN</t>
+  </si>
+  <si>
+    <t>Dạ thưa Thầy (Cô)! cho em hỏi: em học môn nông học đại cương (204306)của thầy Huỳnh Thanh Hùng,lớp DH12BV, mấy đứa bạn em học chung lớp thì có điểm rồi, còn em chưa có điểm trên bảng điểm của ://aao.hcmuaf.edu.vn/. mong thầy cô giúp em. xin cảm ơn thầy cô</t>
+  </si>
+  <si>
+    <t>Xin chào,Đề nghị em liên lạc với Cô Ái Hà, Giáo vụ khoa để kiểm tra! Chúc thành công!Võ Thái Dân</t>
+  </si>
+  <si>
+    <t>nếu hoc nganh công nghệ thực phẩm thi học như thế nào</t>
+  </si>
+  <si>
+    <t>chào em,trường ĐH Nông Lâm TP.HCM đào tạo các kỹ sư có kiến thức và chuyên môn đáp ứng phục vụ trong ngành CNTP, em học về công nghệ không phải học kỹ thuật nấu ăn.chúc em thành công</t>
+  </si>
+  <si>
+    <t>nganh nay hoc song co de xin viec lam khong vay?</t>
+  </si>
+  <si>
+    <t>Em hỏi ngành gì vậy?Học là để có kiến thức. Còn có việc làm hay không tuỳ thuộc vào kiến thức và khả năng của em.Khoa MTTN </t>
+  </si>
+  <si>
+    <t>e la hoc sinh trung binh nhung e muon thi vao nganh cn thuc pham.cho e hoi so diem đậu va thj nhung mon nao?</t>
+  </si>
+  <si>
+    <t>chào em,em có thể thi khối A hoặc khối B để vào ngành CNTP của trường ĐH Nông Lâm TP.HCM.Điểm chuẩn các năm dao động từ 15-16.5 tùy khối, em xem chi tiết tại web của phòng đào tạo trường/mục tuyển sinh.chúc em thành công,</t>
+  </si>
+  <si>
+    <t>Kính chào quý Thầy Cô! Cho e hỏi chuẩn đầu ra B1 kết quả thi ngày 03 - 03 -2013 lấy bao nhiêu câu vậy ạ. Em cảm ơn ạ!</t>
+  </si>
+  <si>
+    <t>Đã có kết quả trên trang web. Em truy cập vào xem nhé !</t>
+  </si>
+  <si>
+    <t>Cho mình hỏi là năm 2013 phân hiệu Đại học Nông Lâm tại Ninh Thuận đã bán hồ sơ dự thi Cao học chưa ạ? Nếu muốn mua hồ sơ thì mua tại đâu?</t>
+  </si>
+  <si>
+    <t>Chào bạnHiện tại Phân hiệu đã phát hành hồ sơ dự thi Cao học tại Phân hiệu. Năm nay tuyển sinh 03 ngành gồm Kinh tế NN, Khoa học cây trồng và Quản lý TNMT. Anh chị có thể mua hồ sơ tại văn phòng phân hiệu, địa chỉ: Thị trấn Khánh Hải, huyện Ninh Hải, tỉnh Ninh Thuận (Trường CđSP Ninh Thuận)</t>
+  </si>
+  <si>
+    <t>Em kính chào quý Thầy/Cô. Thầy cô cho em hỏi: em tốt nghiệp ngành Kinh tế Tài nguyên môi trường (KM33). Em muốn học cao học thì có thể học những ngành nào? Nếu em muốm học cao học ngành Quản lý môi trường có được không? (nếu được, em có phải học thêm môn chuyên ngành nào ngoài những môn đã học không?). Và thi đầu vào cao học 2013 gồm những môn nào? Kính mong quý thầy/cô giải đáp giúp em</t>
+  </si>
+  <si>
+    <t>ma nganh truong nong lam</t>
+  </si>
+  <si>
+    <t> Mã trường là NLS bạn ạThân </t>
+  </si>
+  <si>
+    <t>Xin chao! minh co dua con thich thi vao ngay nay, vay cho minh hoi : hoc nganh nay co hoi co viec lam la bao nhieu %?</t>
+  </si>
+  <si>
+    <t>Chào chị,Cám ơn chị đã quan tâm đến ngành học của khoa và rất vui khi chị quan tâm đến vấn đề cơ hội việc làm say khi ra trường.Cũng như các ngành khác, việc học ngành này cần sự đam mê công việc tuỳ vào khả năng của từng em khi ra trường để có công việc cụ thể. Tình hình hiện nay, sau khi tốt nghiệp thì tỉ lệ có việc làm ở nam có thể lên đến trên 90%, đối với các bạn nữ thì cơ hội việc làm hơi khó. Tuy nhiên với nhu cầu về ngành thú y trên thú cưng (chó mèo) thì cơ hội lạm việc của nữ sẽ dần tăng.Chị có thể tham khảo thêm bài viết sauhttp://www.sggp.org.vn/giaoduc/tvhuongnghiep/2009/2/182123/Chúc chị vui </t>
+  </si>
+  <si>
+    <t>sau khi hoc khoa cong nghe thuc pham e se lam cong viec gi?</t>
+  </si>
+  <si>
+    <t> Một số thông tin về ngành Công nghệ Thực phẩm em tham khảo nhé: Gồm ba chuyên ngành:-          Bảo quản chế biến nông sản thực phẩm -          Bảo quản chế biến NSTP và dinh du­ỡng nguời -          Bảo quản chế biến NS và vi sinh thực phẩm 20.1. CHUYÊN NGÀNH BẢO QUẢN CHẾ BIẾN NÔNG SẢN THỰC PHẨM Mục tiêu đào tạo: Nắm vững kiến thức cơ bản, cơ sở, chuyên môn của ngành, có khả năng hoạt động độc lập vận dụng các kiến thức đã học vào việc cải tiến, đổi mới các quy trình công nghệ bảo quản, chế biến sản xuất nông sản, thực phẩm cũng như công tác tốt trong các cơ sở đào tạo, nghiên cứu, các thành phần kinh tế…có liên quan.Việc làm sau khi tốt nghiệp: Kỹ sư ngành bảo quản chế biến nông sản thực phẩm có thể làm việc trong các doanh nghiệp, sản xuất kinh doanh, cơ sở sản xuất chế biến nông sản-thực phẩm hay trong các cơ sở nghiên cứu và phát triển kỹ thuật bảo quản, chế biến các sản phẩm từ thịt, cá; nghiên cứu và phát triển kỹ thuật bảo quản, chế biến các loại rau và trái cây; nghiên cứu các kỹ thuật bảo quản nông sản; nghiên cứu kiểm tra chất lượng sản phẩm. 20.2. CHUYÊN NGÀNH BQCBNSP &amp; DINH DƯỠNG NGƯỜIChương trình được thiết kế dựa trên mối tương quan giữa thực phẩm và sức khỏe con người. Bao gồm các vấn đề về các công nghệ chế biến thực phẩm và giá trị dinh dưỡng của thực phẩm cũng như ảnh hưởng của các chất dinh dưỡng đến sự phát triển cơ thể và sức khỏe. Mục tiêu đào tạo: Đào tạo nguồn nhân lực có khả năng công tác ở các vị trí tư vấn dinh dưỡng, phát triển các sản phẩm dinh dưỡng, kiểm định chất lượng dinh dưỡng trong các công ty cung cấp thực phẩm (bếp ăn khu công nghiệp, nhà hàng, dịch vụ du lịch…), đánh giá tình hình dinh dưỡng và lập kế hoạch can thiệp dinh dưỡng cộng đồng… đáp ứng một cách thiết thực nhu cầu phát triển của xã hội trong quá trình hội nhập. Đồng thời có thể tiếp tục theo học các chương trình đào tạo sau đại học trong nước hoặc ngoài nước. Việc làm sau khi tốt nghiệp: Kỹ sư ngành bảo quản chế biến nông sản thực phẩm chuyên ngành dinh dưỡng người có thể làm việc trong các doanh nghiệp, sản xuất kinh doanh, cơ sở sản xuất chế biến nông sản - thực phẩm ngoài ra còn có thể thích hợp công tác tại các Viện hay Trung tâm nghiên cứu về dinh dưỡng người, các Trung tâm tư vấn về dinh dưỡng và sức khỏe cộng đồng,… Do sẽ hoạt động trong thời kỳ đổi mới với kinh tế nhiều thành phần, bên cạnh phát triển giao lưu thương mại, cạnh tranh làm cho thị trường thực phẩm ngày càng phong phú, đa dạng cả thực phẩm nhập khẩu cũng như thực phẩm sản xuất trong nước, đòi hỏi sinh viên tham gia vào việc xây dựng và thực hiện một quy trình kỹ thụât nghiêm ngặt, quy chế quản lý chặt chẽ về sản xuất và kinh doanh thực phẩm để hạn chế tối đa nguy cơ và số vụ ngộ độc thực phẩm mà hậu quả của nó chẳng những ảnh hưởng trực tiếp đến sức khoẻ và tính mạng của người tiêu dùng mà còn ảnh hưởng đến chất lượng cuộc sống nhân dân và ảnh hưởng không nhỏ đến sự phát triển kinh tế - xã hội đất nước.  20.3. CHUYÊN NGÀNH BQCBNS VÀ VI SINH THỰC PHẨMMục tiêu đào tạo: Vai trò của vi sinh vật công nghiệp và công nghệ sinh học trong giải quyết những vấn đề then chốt như việc đảm bảo cung cấp dồi dào thực phẩm với chất lượng ngày càng tốt hơn, đẩy lùi nhiều loại bệnh tật hiểm nghèo, bảo vệ và sử sụng hợp lý các nguồn tài nguyên thiên nhiên, đẩy mạnh quá trình sản xuất trong nông nghiệp và công nghiệp đã mang ý nghĩa kinh tế - xã hội. Công nghệ vi sinh vật học trở thành một trong những lĩnh vực mới mẻ, kỳ diệu nhất trong cuộc cách mạng khoa học và công nghệ.            Với kiến thức và kỹ năng chung về bảo quản và chế biến nông sản thực phẩm, chuyên ngành cung cấp cho người học hiểu biết sâu sắc về ảnh hưởng bất lợi và ứng dụng của vi sinh vật trong lĩnh vực chế biến và bảo quản cũng như những kỹ thuật để kiểm soát và kiểm nghiệm vi sinh trong thực phẩm nhằm bảo đảm an toàn vệ sinh thực phẩm cho người tiêu dùng.Việc làm sau khi tốt nghiệp: Kỹ sư BQCBNSTP chuyên ngành vi sinh thực phẩm có thể làm việc trong các doanh nghiệp, các cơ sở sản xuất kinh doanh chế biến nông sản thực phẩm hoặc công tác tại các Viện hay các trung tâm nghiên cứu về dinh dưỡng, về vi sinh thực phẩm, các trung tâm tư vấn về sức khỏe cộng đồng... hoặc tham gia trong công tác kiểm tra thẩm định chất lượng vệ sinh an toàn thực phẩm.Các sinh viên học tiếng Pháp có nguyện vọng sẽ được xét học chương trình song ngữ Việt-Pháp về công nghệ thực phẩm và tổ chức AUPELF-UREF xét cấp học bổng. Tốt nghiệp loại giỏi và bảo vệ luận văn bằng tiếng Pháp sẽ được dự xét du học sau đại học tại một trong các nước nói tiếng Pháp (Pháp, Canada, Bỉ,…), ưu tiên tuyển chọn vào làm việc tại các công ty hay doanh nghiệp có sử dụng tiếng Pháp.Thân </t>
+  </si>
+  <si>
+    <t>chuẩn đầu ra B1 đợt 3/3/2013 lấy bao nhiêu câu?</t>
+  </si>
+  <si>
+    <t> Do tính chất đề thi nên hội đồng quyết định 37 câu là đậu em nhé.Chúc em đạt B1.</t>
+  </si>
+  <si>
+    <t>Em muốn hỏi trường Đại Học Nông Lâm có cụm thi ở Quy Nhơn hay không</t>
+  </si>
+  <si>
+    <t>Xin chào,Đúng là trường Đại học Nông Lâm tp. HCM có tổ chức thi ở cụm Quy Nhơn theo quy định của Bộ GD và ĐT. Chúc thành công!Võ Thái Dân</t>
+  </si>
+  <si>
+    <t>Xin chào ban tư vấn Cho em hỏi là trường có tổ chức thi liên thông từ Trung cấp lên Đại Học không vậy? Nếu có thì em phải làm sao để thi và theo học tại trường Hiện em đang có bằng Trung cấp chuyện nghiệp nhưng chưa đủ 36 tháng theo quy định của Bộ Giáo Dục &amp; Đào Tạo Em xin chân thành cám ơn.</t>
+  </si>
+  <si>
+    <t> Chao em,Trường chỉ tuyển sinh liên thông từ cao đẳng lên đại học thôi. em có thể xem thông tin ở truong khác nhé. chúc em thành công. </t>
+  </si>
+  <si>
+    <t>nganh cong nghe thuc pham cua truong co nhung chuyen nganh nao.</t>
+  </si>
+  <si>
+    <t>chào em,NGÀNH CÔNG NGHỆ THỰC PHẨM CỦA TRƯỜNG ĐẠI HỌC NÔNG LÂM TP.HCM có 4 chuyên ngành:- BQ CB Nông sản thực phẩm- BQCB Nông sản và vi sinh thực phẩm- BQCB thực phẩm và dinh dưỡng Người.- Khoa học CNTP (chương trình tiên tiến - học bằng tiếng Anh).</t>
+  </si>
+  <si>
+    <t>em muốn học ngành cao su thì phải đăng ký ngành học nào thì thích hợp?</t>
+  </si>
+  <si>
+    <t>Xin chào,Kỹ sư tốt nghiệp ngành Nông học có thể công tác ở tất cả các cơ quan liên quan đến sản xuất nông nghiệp, trong đó có cây cao su! Do đó, nếu muốn công tác liên quan đến sản xuất cao su, em có thể đăng ký thí ngành Nông học! Chúc thành công!Võ Thái Dân.</t>
+  </si>
+  <si>
+    <t>Kính thưa các thầy cô. Em tên là K Lút, sinh viên học lớp DH12LN, cho em hỏi là kết quả đăng ký môn học bổ sung khi nào có và em phải xem kết quả đó ở đâu vậy ạh.</t>
+  </si>
+  <si>
+    <t>chào em,Em có thể truy cập mail, website phòng đào tạo để biết thông tin em nhé hoặc liên hệ cô giáo vụ khoa Lâmchúc em thành công </t>
+  </si>
+  <si>
+    <t>ngành quản lí môi trường và du lịch sinh thái học xong dễ kiếm việc làm không?và làm ở đâu</t>
+  </si>
+  <si>
+    <t>Em xem thông tin chi tiết về ngành học ở đây.http://env.hcmuaf.edu.vn/contents.php?ids=8338&amp;ur=envKhoa MTTN</t>
+  </si>
+  <si>
+    <t>Em là thí sinh tự do, ở mục 15 trong hồ sơ có yêu cầu mã đơn vị ĐKDT, vậy trường mình là bao nhiêu ạ? em xin cảm ơn.</t>
+  </si>
+  <si>
+    <t>Mã trường là NLSKhoa MTTN</t>
+  </si>
+  <si>
+    <t>em xin hoi: quan ly tai nguyen la cong viec nhu the nao? sau nay ra truong thi lam o dau?</t>
+  </si>
+  <si>
+    <t>Em xem thông tin chi tiết ở đâyhttp://env.hcmuaf.edu.vn/contents.php?ids=8753&amp;ur=envKhoa MTTN</t>
+  </si>
+  <si>
+    <t>NGÀNH BẢN ĐỒ HỌC LÀ NGÀNH GÌ Ạ. NÓ CÓ GIỐNG QUẢN LÝ ĐẤT ĐAI KHÔNG Ạ?</t>
+  </si>
+  <si>
+    <t>Bản đồ học liên quan đến hệ thống thông tin địa lý ứng dụng và hệ thống thông tin môi trường.Em xem thêm thông tin về ngành học ở đâyhttp://gis.hcmuaf.edu.vn/Khoa MTTN</t>
+  </si>
+  <si>
+    <t>Dạ cho em hỏi trong Chương trình tiên tiến ngành CNTP thì tất cả các môn trong ngành mình đều phải học bằng tiếng anh hay sao ạ?</t>
+  </si>
+  <si>
+    <t>chào em,chương trình tiên tiến học bằng tiếng anh tất cả các môn ngoại trừ các môn Tư tưởng Hồ Chí Minh, giáo dục thể chất, quân sự,..chúc em thành công</t>
+  </si>
+  <si>
+    <t>chào em,Những môn cơ bản, môn học cơ sở, môn học chuyên ngành đều học bằng tiếng Anh. Tuy nhiên các môn chính trị, GDQP, GDTD đều học bằng tiếng Việt.</t>
+  </si>
+  <si>
+    <t>Cho e hỏi: sao e chưa thấy danh sách công nhận đạt b1 của ngày thi 3/3/2013 ạ?</t>
+  </si>
+  <si>
+    <t>Nếu em đạt 37 câu trở lên thì em hoàn toàn yên tâm về kết quả của mình nên em không cần phải lo lắng. Em có thể kiểm tra trên bảng điểm phòng đào tạo để đối chiếu.</t>
+  </si>
+  <si>
+    <t>em là Lê Minh Huy, sinh viên khoa QLDD&amp;TTBDS, do hoàn cảnh kinh tế gia đình nên e đã không đóng học phí đúng thời hạn 22/3/2013. em xin hỏi là có cách nào giải quyết cho em không? kính mong nhận được sự trợ giúp từ phòng công tác sinh viên. xin cảm ơn !</t>
+  </si>
+  <si>
+    <t> Vì em không trình bày lý do hoàn cảnh gia đình trước thời gian (22/3/2013) nên hiện tại phòng không thể giúp em được (vì đã trễ hạn đóng học phí rồi). Lưu ý, nhà trường vẫn có chế độ giải quyết trễ hạn cho những trường hợp có hoàn cảnh đặc biệt nhưng phải có đơn trình bày trước.Thân </t>
+  </si>
+  <si>
+    <t>học công nghệ sinh học sẽ làm việc ở đâu ạ?</t>
+  </si>
+  <si>
+    <t>Kiều thân;Bạn có thể vào tham khảo về chương trình đào tạo của ngành Công nghệ Sinh học tại http://biotech.hcmuaf.edu.vn/contents.php?ids=5903&amp;ur=biotech -         Cơ hội nghệ nghiệp đối với sinh viên sau khi tốt nghiệp ngành Công nghệ Sinh học:+ Bệnh lý+ tư vấn về di truyền+ Phát triển sản phẩm cho mục đích trương mại+ Nghiên cứu và đào tạo+ Sản xuất dược phẩm: Insulin, hormone tăng trưởng, Vắc xin+ Các lĩnh vực truyền thống: rượu, bia…+ Các lĩnh vực công nghệ sinh học hiện đại: nghiên cứu tế bào gốc, nghiên cứu ung thư, biến đổi gen của thực vật+ Kỹ thuật tụ tinh trong ống nghiệm+ Xác định virus gây bệnh trên động, thực vật -         Làm việc trong lĩnh vực môi trường: Bảo tồn động thực vật có nguy cơ tuyệt chủng, kiểm soát ô nhiễm và xử lý chất thải-         Làm việc tại các phòng thí nghiệm của các Sở nghiên cứu khoa học, các Viện nghiên cứu, trung tâm nghiên cứu,..-         Làm việc trong các phòng thí nghiệm khoa học pháp y như trong cơ quan cảnh sát. ( ví dụ: xác định DNA thong qua dấu vân tay)-         Làm việc trong các cơ quan quản lý, kiểm soát dịch bệnh          Chúc bạn học tốt.         Le Anh Thu</t>
+  </si>
+  <si>
+    <t>Các Thầy, Cô cho em hỏi: "Môn học Rèn nghề 2 - Thành lập BĐCN (Mã số: 209908) sao bản điểm của giáo viên bộ môn chấm của em là 9.5 trong khi đó điểm của môn học này trong phần xem điểm của Đăng kí môn học chỉ có 8.5". Vậy quý Thầy, Cô cho em biết phải làm sao để chỉnh lý điểm trên cho đúng với thực tế? Em xin chân thành cảm ơn.</t>
+  </si>
+  <si>
+    <t>Chào em,Trường hợp của em thủ tục cần giải quyết theo trình tự như sau:- In bảng điểm gốc (photo) của môn học Rèn Nghề- In bảng điểm trực tiếp trên phòng đào tạo (không in trên trang web)- Đối chiếu 2 mã môn học- Nếu đúng có sai sót như em trình bày, em download mẫu đơn điều chỉnh điểm tại trang web phòng đào tạo, điền đầy đủ thông tin và nộp cho thầy Quang. Phòng đào tạo sẽ xử lý và cập nhật lại điểm cho em.Thân chào. </t>
+  </si>
+  <si>
+    <t>kính thưa thầy, em là sinh viên lớp CN34 đã tốt nghiệp, nay em muốn đăng ký học thêm bằng bác sĩ thú y thì gồm những thủ tục gì và khi nào thì có mở lớp.em xin chân thành cảm ơn.</t>
+  </si>
+  <si>
+    <t>Chào em,Em đã tốt nghiệp ngành chăn nuôi, nếu muốn học thêm ngành thú y thì thường có mở lớp chuyển tiếp. Đây không phải là lớp thường xuyên mở, cần phải có số lượng đủ. Do đó em phải liên lạc văn phòng khoa đăng ký thông tin. VP sẽ ghi nhận và tổng hợp khi nào đủ số lượng sẽ liên lạc với emChúc em công việc tốt</t>
+  </si>
+  <si>
+    <t>em muom hoi ve nganh cntp nganh nay dao tao nhu the nao hoc phi ra sao voi suc cua vem thi tb thi theo gag thay em co nen thi dai hoc cua truong nay hay khong</t>
+  </si>
+  <si>
+    <t>chào em,ngành CNTP của trường ĐH Nông Lâm TP.HCM đào tạo các kỹ sư có kiến thức và chuyên môn trong CNTP, em có thể làm việc tại các nhà máy, viện nghiên cứu, hoặc tham gia giảng dạy tại các trường,.. nếu có điều kiện em có thể mở doanh nghiệp riêng,...Học phí chương trình tiếng việt khoảng 4-4.5 triệu/năm.Trường có 52 ngành, em xem yêu thích ngành nào thì đăng ký ngành đó, điểm chuẩn của trường dao động từ 13 - 18 điểm (tùy ngành).chúc em thành công,</t>
+  </si>
+  <si>
+    <t>cho con hoi nghanh nong hoc la chuyen lam gi. va nghanh lam nghiep lam gi?</t>
+  </si>
+  <si>
+    <t> Thông tin về ngành Lâm nghiệp như sau:những kiến thức về sinh thái học, lâm sinh, trồng rừng, điều tra, điều chế, bảo vệ, quản lý nguồn tài nguyên rừng với 03 hướng: lâm sinh, lâm nghiệp đô thị, lâm nghiệp xã hội.            Sinh viên tốt nghiệp có kiến thức cơ sở ngành về : Xã hội học, Xã hội học nông thôn, Sinh lý thực vật, Thống kê lâm nghiệp, Đất - lập địa, Thực vật rừng, sinh thái rừng, Khí tượng - thủy văn rừng;có kiến thức chuyên ngành về lĩnh vực lâm sinh: Kỹ thuật lâm sinh, Trồng rừng, Côn trùng lâm nghiệp, Bệnh hại rừng, Đo đạc và bản đồ, Đa dạng sinh học, Di truyền và giống cây rừng, Quản lý rừng bền vững, Kỹ thuật nhân giống, Lâm nghiệp đô thị, Điều tra rừng…Các kỹ năng mà sinh viên tốt nghiệp có được như thực hiện được các nghiên cứu về về lĩnh vực lâm sinh; áp dụng và phát triển những kỹ thuật khai thác- tái sinh rừng, trồng rừng và nuôi dưỡng rừng, điều tra, đánh giá tài nguyên rừng, quy hoạch; chuyển giao tiến bộ khoa học kỹ thuật và công nghệ trong lĩnh vực lâm sinh; đề xuất, lựa chọn các giải pháp, cải tiến công nghệ nâng cao năng suất và chất lượng sản phẩm từ rừng;tham gia tập huấn, chuyển giao kỹ thuật, công nghệ chuyên ngành lâm sinh. Việc làm sau khi tốt nghiệp: Kỹ sư ngành lâm nghiệp có thể đảm trách công việc liên quan đến lĩnh vực lâm sinh: Các công ty, các doanh nghiệp lâm nghiệp; làm việc tại các trường, phòng Khoa học &amp; Công nghệ, các sở, phòng ban ở các tỉnh, huyện trong cả nước về lĩnh vực lâm nghiệp; làm việc tại các viện điều tra qui hoạch, các trung tâm ứng dụng và triển khai lâm nghiệp, các trung tâm khuyến nông, khuyến lâm; giảng dạy ngành lâm nghiệp tại các trường đại học, cao đẳng và Trung học chuyên nghiệp và các trường dạy nghề…; có thể làm chuyên gia tư vấn cho các chương trình, dự án về lĩnh vực nông lâm nghiệp và phát triển nông thôn các cấp.Về ngành Nông học: “Phát triển ngành trồng trọt, hình thành vùng sàn xuất hàng hoá tập trung, thực hiện đầu tư thâm canh, áp dụng các giống vá quy trình sản xuất mới có năng suất, chất lượng cao” (Nghị Quyết Trung Ương bảy, Khoá X). Mức kiến thức và kỹ năng sau cùng của một sinh viên tốt nghiệp, được xác định như sau:-       Áp dụng và chuyển giao kỹ thuật vào sản xuất nông nghiệp. -       Cải thiện sản xuất cây trồng bằng áp dụng kỹ thuật nông nghiệp kết hợp các giải pháp kinh tế và tiếp thị, từ đó nâng cao thu nhập của nông dân-       Làm việc độc lập và làm việc nhóm để xác định và giải quyết các vấn đề kỹ thuật trong sản xuất cây trồng/bảo vệ thực vật.-       Tự học để nâng cao kiến thức. -       Thực hiện nghiên cứu khoa học ứng dụng.-       Đề xuất vấn đề/giải pháp và đóng vai trò chỉ đạo để đạt mục tiêu đề ra – có năng lực cơ bản của một nhà quản lý. -       Huấn luyện các thành viên, nhóm ở các cấp độ khác nhau về sản xuất cây trồng/bảo vệ thực vật.-       Hợp tác với các ngành chuyên môn khác.-       Có trách nhiệm với xã hội cộng đồng liên quan đến nghề nghiệp - Thực hiện đúng pháp lệnh ngành nông nghiệp.Việc làm sau khi tốt nghiệp: Kỹ sư ngành nông học Kỹ sư ngành nông học có thể làm việc tại các Trung tâm nghiên cứu và chuyển giao khoa học kỹ thuật về nông nghiệp, Viện nghiên cứu về nông nghiệp, Viện sinh học nhiệt đới, các Sở Nông nghiệp và Phát triển nông thôn, các Trung tâm Khuyến nông, Chi cục hay Trạm Bảo vệ Thực vật, các Trung tâm Giống cây trồng, các nông trường, nông trại, trang trại, các công ty nhà nước hay các liên doanh hoặc tư nhân trong kinh doanh vật tư nông nghiệp (giống, phân bón, thuốc bảo vệ thực vật). Ngoài ra, có thể tham gia giảng dạy, nghiên cứu tại các cơ sở đào tạo (trung học, cao đẳng, đại học nông nghiệp) hoặc học tiếp các bậc học thạc sĩ, tiến sĩ chuyên ngành. Hiện nay, nhu cầu tuyển dụng kỹ sư nông học rất lớn từ các công ty (như Công ty Thuốc sát trùng Việt Nam, Công ty Cây Xanh TP.HCM,..), các xí nghiệp hoặc các thương nghiệp hỗn hợp hay các công ty có vốn nước ngoài (như Bayer Agritech Saigon,.....) hoặc các trang trại ở miền Đông Nam bộ, Nam Tây nguyên.v.v.Hy vọng các thông tin trên bổ ích cho em.Thân </t>
+  </si>
+  <si>
+    <t>Thưa thầy cho con hỏi ngành thiết kế đồ gỗ nội thất có nữ học không dạ?và có phù hợp với nữ không thầy?</t>
+  </si>
+  <si>
+    <t>Chào em,Câu hỏi của em thật dễ nhưng cũng thật khó.Nếu thật sự thích và đam mê phụ nữ sẽ làm được tất cả kể cả việc làm phi công hay phi hành gia.Ngành nghề là cái mà mỗi người chúng ta lựa chọn và phù hợp hay với những ai thật sự yêu thích và đam mê nó.Ngành này hiện nay qua các khóa đào tạo nữ chiếm tỷ lệ từ 20-35% trong lớp học.Cô không biết sở thích của em nhưng nếu em yêu thích về gỗ và đồ gỗ nội thất em có thể theo họcsau đây là cơ hội việc làm cho ngành gỗNgành chế biến gỗ Việt Nam đang phát triển với tốc độ rất nhanh trong những năm gần đây, vươn lên là một trong 7 mặt hàng đem lại kim ngạch xuất khẩu hàng gỗ chế biến lớn nhất ở khu vực Đông Nam Á. Hiện cả nước có khoảng 2.000 doanh nghiệp chế biến gỗ với năng lực chế biến 2,2 – 2,5 triệu mét khối gỗ tròn mỗi năm, trong đó có 450 công ty chuyên sản xuất xuất khẩu (120 công ty chuyên sản xuất hàng ngoài trời và 330 công ty sản xuất hàng nội thất).Các doanh nghiệp sản xuất và chế biến gỗ ở Việt Nam bao gồm các công ty nhà nước (374 doanh nghiệp), các công ty trách nhiệm hữu hạn và do chính sách đầu tư nước ngoài từ Singapore, Đài Loan, Malayxia, Na Uy, Trung Quốc, Thụy Điển… đang hoạt động trong lĩnh vực sản xuất và chế biến các sản phẩm gỗ tại Việt Nam, với tổng số vốn đăng ký lên đến 105 triệu USD. Hầu hết các công ty sản xuất và chế biến các sản phẩm gỗ tập trung chủ yếu ở các tỉnh miền Nam (T.P Hồ Chí Minh, Bình Dương, Đồng Nai…), các tỉnh miền Trung và Tây Nguyên (Bình Định, Gia Lai, Đắc Lắc…), một số công ty, thường là các công ty sản xuất và xuất khẩu đồ gỗ mỹ nghệ, tập trung ở các tỉnh phía Bắc và khu vực đồng bằng sông Hồng như Hà Nội, Bắc Ninh, Hà Tây, Vĩnh Phúc…Sau khi tốt nghiệp các kỹ sư sẽ thể làm việc công ty chế biến gỗ, công ty gỗ mỹ nghệ, công ty keo dán gỗ, công ty sấy gỗ, công ty trang trí nội thất, công ty hàng thủ công mỹ nghệ v.v…những công ty, tập đoàn sản xuất chế biến gỗ điển hình như Alexander, Scancom, Interwood, Trường Thành, AA Corporation,  Hoàng Anh Gia Lai, Quốc Cường Gia Lai, MDF Gia Lai, Đức Thành, Thuận An, PisiCo Bình Định, Mỹ Tài, Toàn Cầu, Trần Đức, Tiến Triển, Minh Dương, Khoa Lâm, Gỗ Tân Mai, Keo Việt….Bên cạnh đó còn có những công ty, hợp tác xã hàng thủ công mỹ nghệ (lâm sản ngoài gỗ): HTX CN Trường Sơn, Kim Bôi, Bảo Liêm, Trúc Xinh, Long Trường Bamboo, Mây tre Hà Linh, Cỏ Xanh, Bamboo master….Theo báo cáo năm 2012 của bộ Nông nghiệp và phát triển nông thôn kim ngạch XK 6 tháng lên 2,2 tỷ USD, tăng so với cùng kỳ năm trước 23,8%. Tất cả các thị trường tiêu thụ lớn đều tăng trưởng mạnh, Hoa Kỳ tăng 32,3%, Trung Quốc 35,3%, Nhật Bản 25,5% so với cùng kỳ năm 2011.Chính vì vậy hiện nay nhu cầu tuyển dụng kỹ sư ngành gỗ là rất lớn, đây là một trong những “ngành hot” hiện nay, do thiếu nguồn nhân lực trầm trọng mà nhiều công ty sẳn sàn trả lương khởi điểm từ 7-8 triệu đồng/ tháng vẫn tuyển không đủ số lượng.Ngoài ra sau tốt nghiệp những sinh viên đam mê nghiên cứu và quản lý có thể làm việc tại các trường, phòng Khoa học &amp; Công nghệ, các sở, phòng ban ở các tỉnh, huyện trong cả nước hay các viện, các trung tâm ứng dụng và triển khai công nghệ sản xuất chế biến gỗ và thủ công mỹ nghệ.Tham gia giảng dạy chuyên ngành Công nghệ gỗ và lâm sản ngoài gỗ tại các trường đại học, cao đẳng và trung học chuyên nghiệp và các trường dạy nghề…Bên cạnh đó có thể làm chuyên gia tư vấn cho các chương trình, dự án về lĩnh vực gỗ và lâm sản ngoài gỗ. Cô Kim (KLN)</t>
+  </si>
+  <si>
+    <t>xin thầy cô cho em biết: chỉ tiêu tuyển sinh của ngành thú y năm 2013 là bao nhiêu ạ?</t>
+  </si>
+  <si>
+    <t>hồ sơ thithhạc sĩ 2013 có cần lí lịch khoa học không?neu có thì tai ở đau?bộ hồ sơ em mua tại trường lại không có phần nay mà phần hồ sơ gồm có lại có yêu cầu phần này?có phải bán hồ sơ thiếu không?</t>
+  </si>
+  <si>
+    <t> Chào bạn!Thông tin tuyển sinh Sau đại học năm 2013 đã được đăng tải trên website của Phòng Đào tạo Sau đại học http://pgo.hcmuaf.edu.vn/contents.php?gid=3284&amp;ur=pgo. Trong Hồ sơ có mẫu Sơ yếu lý lịch bạn cần điền đầy đủ thông tin. Chi tiết liên hệ số điện thoại: 08.38963339.Trân trọng.</t>
+  </si>
+  <si>
+    <t>Thầy Cô cho con hỏi: ti lệ chọi về ngành quản lí tài nguyên và du lịch sinh thái của trường ĐH nông lâm là bao nhiêu?</t>
+  </si>
+  <si>
+    <t>Ngành Quản lý môi trường và du lịch sinh thái của trường năm nay lấy chỉ tiêu là 100 cho cả hai khối A và B. Năm 2012, điểm chuẩn trúng tuyển vào ngành này là 13d (Khối A), 15d (khối B). Năm 2011: 13d (Khối A), 15d (Khối B). Như vậy trong các năm gần đây, điểm chuẩn vào ngành này không cao. Dao động từ 13 - 15 điểm. Nếu em có nguyện vọng và sở thích theo học, em có thể nộp hồ sơ đăng ký dự tuyển vào trường. Chúc em thành công.</t>
+  </si>
+  <si>
+    <t>cho em hoi nganh dieu khien tu dong hoa sau nay ra truong minh se lam nhung gj</t>
+  </si>
+  <si>
+    <t> Em tham khảo những thông tin sau nhé: : Kỹ sư ngành kỹ thuật điều khiển và tự động hóa có thể công tác tại các nhà máy, xí nghiệp, các công ty, các doanh nghiệp sản xuất công nông nghiệp, đặc biệt liên quan đến bảo quản chế biến các sản phẩm nông nghiệp hoặc tại các Viện chuyên ngành (viện công nghệ sau thu hoạch, viện khoa học kỹ thuật,...) hay tham gia giảng dạy tại các cơ sở đào tạo (đại học, trung học,…).Thân </t>
+  </si>
+  <si>
+    <t>Cho em hỏi học phí ngành công nghệ sinh học một năm là bao nhiêu vậy ạ...???</t>
+  </si>
+  <si>
+    <t> Học phí tính theo tín chỉ. Năm 2012-2013 là 122.000đ/tín chỉ.Thân </t>
+  </si>
+  <si>
+    <t>diem san vao truong la bao nhieu</t>
+  </si>
+  <si>
+    <t>Chào bạn; Vẫn chưa biết được Ngành Công nghệ Sinh học năm nay lấy bao nhiêu điểm đâu bạn, bạn có thể tham khảo thông tin về điểm chuẩn năm 2012, 2011 tại trang web: http://ts.hcmuaf.edu.vn/contents.php?ids=15256&amp;ur=tsChúc bạn học tốt.Le Anh Thu</t>
+  </si>
+  <si>
+    <t>nghanh quan li moi truong co ma nghanh la may vay?</t>
+  </si>
+  <si>
+    <t>D850101Khoa MTTN</t>
+  </si>
+  <si>
+    <t>ngành công nghệ sinh học sau này ra sẽ làm gì vạy ạ ?</t>
+  </si>
+  <si>
+    <t>Chào bạn;Bạn có thể vào website Trường tìm hiểu thêm về ngành , và-         Cơ hội nghệ nghiệp đối với sinh viên sau khi tốt nghiệp ngành Công nghệ Sinh học:+ Bệnh lý+ tư vấn về di truyền+ Phát triển sản phẩm cho mục đích trương mại+ Nghiên cứu và đào tạo+ Sản xuất dược phẩm: Insulin, hormone tăng trưởng, Vắc xin+ Các lĩnh vực truyền thống: rượu, bia…+ Các lĩnh vực công nghệ sinh học hiện đại: nghiên cứu tế bào gốc, nghiên cứu ung thư, biến đổi gen của thực vật+ Kỹ thuật tụ tinh trong ống nghiệm+ Xác định virus gây bệnh trên động, thực vật -         Làm việc trong lĩnh vực môi trường: Bảo tồn động thực vật có nguy cơ tuyệt chủng, kiểm soát ô nhiễm và xử lý chất thải-         Làm việc tại các phòng thí nghiệm của các Sở nghiên cứu khoa học, các Viện nghiên cứu, trung tâm nghiên cứu,..-         Làm việc trong các phòng thí nghiệm khoa học pháp y như trong cơ quan cảnh sát. ( ví dụ: xác định DNA thong qua dấu vân tay)-         Làm việc trong các cơ quan quản lý, kiểm soát dịch bệnh          Le Anh Thu</t>
+  </si>
+  <si>
+    <t>cho em hỏi? những đối tượng được miễn giảm học phí khi học tai trường?</t>
+  </si>
+  <si>
+    <t>Từ tháng 10 năm 2010, chế độ miễn giảm học phí không còn tiến hành ở trường em đang học. Thay vào đó, các em thuộc đối tượng được miễn giảm sẽ làm giấy xác nhận sinh viên gửi về phòng Lao động Thương binh Xã hội ở địa  phương để được giải quyết nhé.Thân </t>
+  </si>
+  <si>
+    <t>cho em hoi: doi voi nganh bao ve thuc vat khi ra truong minh co xin lam viet tai dau...?</t>
+  </si>
+  <si>
+    <t> Võ Thái Dân Chúc thành công! Có thể trả lời Anh/Chị ngắn gọn như sau: Kỹ sư tốt nghiệp ngành Bảo vệ thực vật có thể làm các công việc liên quan đến công tác Bảo vệ thực vật. Tuy nhiên, có thể chia thành ba hướng công tác chính:1. Giảng dạy, nghiên cứu: công tác tại các trường Đại học, Cao đẳng nông nghiệp; các Viện nghiên cứu (như Viện Khoa học Kỹ thuật Nông nghiệp Miền Nam; Viện Cây ăn quả, Viện Mía Đường, Viện Nghiên cứu cao su Việt Nam, Viện Lúa Đồng bằng Sông Cửu Long, Viện BVTV…)2. Quản lý nhà nước về bảo vệ thực vật: công tác tại các cơ quan quản lý nhà nước về bảo vệ thực vật (bảo vệ thực vật, kiểm dịch thực vật…) cấp xã, huyện, tỉnh hay Trung ương3. Kinh doanh, dịch vụ: công tác tại các tập đoàn, công ty cung cấp vật tư nông nghiệp (Giống, phân bón, thuốc BVTV, vật tư khác) hay các công ty sản xuất cây trồng (cao su, thuốc lá, mía đường, cà phê, ca cao…)Ngoài ra có thể tham gia các hoạt động tư vấn về SXCT, các hoạt động phi chính phủ…Xin chào,</t>
+  </si>
+  <si>
+    <t>ngành công nghệ sinh hoc của trường seo a thấy toàn nghiên cức về cây trồng ko vậy ạ ??? như thế thì sau này ra trường liệu có chắc chắn là xìn làm bên các công ty dược được ko ạ ???</t>
+  </si>
+  <si>
+    <t>Chào bạn;Cơ hội nghề nghiệp của Ngành Công nghệ Sinh học không chỉ nghiên cứu về cây dược liệu mà còn những lĩnh vực khác như:- Các lĩnh vực truyền thống: rượu, bia...- Các lĩnh vực công nghệ sinh học hiện đại: nghiên cứu tế bào gốc, nghiên cứu về biến đổi gen của thực vật...- Kỹ thuật thụ tinh trong ống nghiệm...Tuy nhiên, khi bạn ra trường thì ngành Công nghệ Sinh học cũng như những ngành nghề khác, cơ hội nghề nghiệp không chỉ phụ thuộc vào kiến thức bạn học, nhu cầu xã hội, mà còn phụ thuộc vào chính khả năng ở bản thân của bạn. Như vậy khi kết hợp được những yếu tố đó, bạn không lo là không có việc để làm, mà chỉ xem là việc đó bạn có muốn làm hay không, còn khi học trong Trường, sẽ có những buổi giao lưu với các Doanh nghiệp cũng như tư vấn, hướng nghiệp cho các bạn lựa chọn.Chúc bạn học thật tốtLe Anh Thu</t>
+  </si>
+  <si>
+    <t>cho e hỏi nganh quan li đât đai truong mình học phí bao nhiu năm ? vậy</t>
+  </si>
+  <si>
+    <t> Học phí tất cả các ngành hệ đại học chính quy tính theo tín chỉ. Mỗi tín chỉ là 122.000đ. Mỗi năm em học khoảng từ 30 đến 50 tín chỉ.Thân </t>
+  </si>
+  <si>
+    <t>Cho em hỏi muốn đăng kí dự thi cần nộp hồ sơ gì a ???</t>
+  </si>
+  <si>
+    <t> Em muốn đăng ký dự thi gì? Tuyển sinh đại học? Tuyển sinh Tại Chức ? Tuyển sinh Liên Thông? Nếu em thi tuyển sinh đại học và là thí sinh tự do, em liên hệ các Sở Giáo dục và đào tạo của tỉnh hoặc trực tiếp tại các trường Đại học em đăng ký dự tuyển để mua hồ sơ và sẽ có cán bộ hướng dẫn cho em điền đầy đủ các mục cần thiết trong hồ sơTrường hợp em thi tuyển sinh Liên thông hoặc Tại chức em bắt buộc phải liên hệ trực tiếp tại trường để mua hồ sơ em nhé !</t>
+  </si>
+  <si>
+    <t>Cho e hoi truong dai hoc nong lam gia lai co to chuc thi khong?</t>
+  </si>
+  <si>
+    <t> Gửi em,Trường ĐH Nông Lâm Tp.HCM chỉ có phân hiệu tại Gia Lai chứ không phải là trường ĐH Nông Lâm Gia Lai em nhé. Việc thi tuyển vào trường ĐH Nông Lâm, em nộp hồ sơ vào trường chọn mã ngành theo quy ước trong cuốn Sổ tay Sinh Viên em nhé !- Hiện tại Phân hiệu Nông Lâm tại Gia Lai tuyển sinh các ngành Nông học (mã ngành: D620109), Lâm Nghiệp (D620201), Kế Toán (D340301), Quản lý Đất Đai (D850103), Thú Y (D640101), Quản lí  tài nguyên và môi trường (D850101), Công nghệ thực phẩm (D540101).Em điền đúng mà ngành em đăng ký dự tuyển như trên vào Hồ sơ tuyển sinh. Nếu em trúng tuyển, em sẽ học tại Gia Lai hoặc có thể học tại Trường ĐH Nông Lâm Tp.HCM,</t>
+  </si>
+  <si>
+    <t>cho e hoj viec lam trong van phong ve ki thuat cao su co ten nganh la j?</t>
+  </si>
+  <si>
+    <t>Xin chào,Kỹ sư ngành Nông học có thể làm việc trong các lĩnh vực liên quan đến sản xuất cây trồng, trong đó có cao su! Chúc thành công!Võ Thái Dân</t>
+  </si>
+  <si>
+    <t>chào các anh chị cho em hỏi ở trường minh có đào tạo ngành trồng trọt không. nếu có mã nghành trồng trọt là gì. và em học tại tp hcm được không</t>
+  </si>
+  <si>
+    <t>Chào em.Năm 2013, Phân hiệu tuyển 4 ngành đại học chính qui gồm Kinh tế, Kế toán, Quản trị kinh doanh và Quản lý tài nguyên môi trường, không tuyển ngành Trồng trọt. Em có thể tham gia thi tuyển sinh và học ngành này tại trường ĐH Nông Lâm Tp. HCM</t>
+  </si>
+  <si>
+    <t>Mã ngành và mã trường cua khoa tài nguyên và môi trường của trường??</t>
+  </si>
+  <si>
+    <t>Mã ngành QLTN&amp;MT là D850101Ngành Kỹ thuật Môi trường là D520320 Khoa MTTN</t>
+  </si>
+  <si>
+    <t>sư phạm kĩ thuật nông nghiệp khi tốt nghiệp sẽ làm những công việc như thế nào</t>
+  </si>
+  <si>
+    <t> Chào bạn.Khi tốt nghiệp chuyên ngành SPKTNN bạn có thể làm trong các lĩnh vực như: * giảng dạy trong lĩnh vực giáo dục nông nghiệp: giáo viên hướng nghiệp, giáo viên giảng dạy kỹ thuật nông nghiêp tại các trường cao đẳng sư phạm, cao đẳng nông nghiệp, cao đẳng công nghiệp, trung tâm hướng nghiệp hay các trung tâm dạy nghề.  * Tham gia thực hiện các đề tài nghiên cứu khoa học nhằm giải quyết những vấn đề có liên quan đến giáo dục và công-nông nghiệp đào tạo nguồn nhân lực phục vụ cho mục tiêu công nghiệp hóa hiện đại hóa đất nước.* Là cán bộ khuyến nông hoặc cán bộ kỹ thuật tại các cơ quan nhà nước, cơ sở sản xuất tư nhân, các trung tâm nghiên cứu ứng dụng chuyển giao khoa học kỹ thuật.* Có thể học tiếp ngành đại học thứ hai hoặc học tiếp bậc học cao hơn các chuyên ngành thuộc khối A và B</t>
+  </si>
+  <si>
+    <t>cho em hỏi trường lấy bao nhiêu điểm và mã ngành lâm nghiệp</t>
+  </si>
+  <si>
+    <t>Chao em,Moi nam Bo se qui dinh cu the diem san va diem xet tuyen cho tung chuyen nganhNen tuy thuoc vao tung namThan ai,KlN</t>
+  </si>
+  <si>
+    <t>chat tao nhu ten goitrong cong nghe hoa hoc la gi -cong dung -mua o dau-gia bao nhieu 1kg512</t>
+  </si>
+  <si>
+    <t>Chào bạn,Do bạn không nói rõ chất bạn đang thắc mắc là chất gì nên chưa trả lời cụ thể cho bạn được.Cám ơn bạn.</t>
+  </si>
+  <si>
+    <t>Cô cho em hỏi. em tốt nghiệp nghành công nghệ thực phẩm, tới đây em có đủ điều kiên để thi vào công chức, viên chức nghành nông nghiệp và nghành khuyến nông không a. Theo em được biết. Bộ Nông nghiệp và phát triển nông thôn là tổng hoowpk 3 bô: Nông nghiệp và công nghệ thực phẩm, Thủy Lợi, Lâm nghiệp truwowccs đây.</t>
+  </si>
+  <si>
+    <t>chào em,Tùy vào vị trí em dự tuyển tại mỗi đơn vị. vì mỗi đơn vị có 1 số yêu cầu cho công việc, nếu em đáp ứng đủ và đúng theo yêu cầu thì em hoàn toàn có thể là 1 CCVC tốt của nhà nước và xã hội,Thân ái,</t>
+  </si>
+  <si>
+    <t>Xin chào quý thầy cô. Em đang có nguyện vọng thi cao học ngành kinh tế nông nghiệp của trường, thầy cô cho em hỏi: Nếu em thi đậu mà vì lý do nào đó không đi học ngay được thì em có thể bảo lưu kết quả không ạ? Nếu được bảo lưu thì thời hạn bảo lưu là bao lâu? Em xin cảm ơn ạ!</t>
+  </si>
+  <si>
+    <t> Chào bạn!Thông tin tuyển sinh Sau đại học năm 2013 đã được đăng tải trên website của Phòng Đào tạo Sau đại học http://pgo.hcmuaf.edu.vn/contents.php?gid=3284&amp;ur=pgo. nếu bạn đã thi đậu dầu vào bạn cần làm hoàn tất thủ tục nhập học và làm đơn xin bảo lưu. Tùy trường hợp Nhà trường sẽ xét và cho phép bảo lưu . Chi tiết liên hệ số điện thoại: 08.38963339.Trân trọng.</t>
+  </si>
+  <si>
+    <t>kính chào quý thầy cô!! thầy cô cho em hỏi: " em muốn dự thi cao học vào ngành Chế Biến Lâm Sản, vậy thì môn cơ bản em sẽ phải dự thi là môn gì? ( toán cao cấp hay là xác suất thống kê ạ). mong nhận được câu trả lời của quý thầy cô.</t>
+  </si>
+  <si>
+    <t> Chào bạn.Thông tin tuyển sinh Sau đại học năm 2013 đã được đăng tải trên website của Phòng Đào tạo Sau đại học http://pgo.hcmuaf.edu.vn/contents.php?gid=3284&amp;ur=pgo. Bạn tham khảo danh mục môn thi của cá chuyên ngành để biết thêm chi tiết. Chi tiết liên hệ số điện thoại: 08.38963339.Trân trọng.</t>
+  </si>
+  <si>
+    <t>trường ĐH Nông Lâm TPHCM có tổ chức thi không ạ .</t>
+  </si>
+  <si>
+    <t>Chào em!Đại Học Nông Lâm TP. HCM có tổ chức thi tuyển theo kỳ thi chung của Bộ GD-ĐT em nhé.PGĐ</t>
+  </si>
+  <si>
+    <t>em muốn thi vào trường khối d1 ngôn ngữ anh, vậy em không biết là điểm thi môn anh có nhân 2 không ạ</t>
+  </si>
+  <si>
+    <t>Chào em!Ngành Ngôn ngữ anh thi khối D1 (Văn, Toán, Anh văn) trong đó Anh văn nhân hệ số 2 nhé.Chúc em thành công!PGĐ</t>
+  </si>
+  <si>
+    <t>em muốn họcc công nghệ kĩ thuật cơ khí D510201 cho em hỏi lấy bao nhiêu điểm và học phí bao nhiêu</t>
+  </si>
+  <si>
+    <t> Điểm chuẩn ngành Cơ khí năm 2012 là 13 điểm (khối A). Học phí là 122.000đ/tín chỉ.Thân </t>
+  </si>
+  <si>
+    <t>Công Nghệ Sinh Học Điểm Chuẩn là bao nhiêu ạ? Cơ hội việc làm có cao không ạ?</t>
+  </si>
+  <si>
+    <t> Chào bạn;Hiện tại vẫn chưa có điểm chuẩn , bạn có thể vào website này để biết thêm thông tin về điểm chuẩn của những năm trước nhé:http://ts.hcmuaf.edu.vn/contents.php?ids=15256&amp;ur=tsHoặc vào tham khảo chỉ tiêu dự kiến tuyển sinh của Trường năm 2013http://ts.hcmuaf.edu.vn/contents.php?ids=16476&amp;ur=ts-         Cơ hội nghệ nghiệp đối với sinh viên sau khi tốt nghiệp ngành Công nghệ Sinh học:+ Bệnh lý+ tư vấn về di truyền+ Phát triển sản phẩm cho mục đích trương mại+ Nghiên cứu và đào tạo+ Sản xuất dược phẩm: Insulin, hormone tăng trưởng, Vắc xin+ Các lĩnh vực truyền thống: rượu, bia…+ Các lĩnh vực công nghệ sinh học hiện đại: nghiên cứu tế bào gốc, nghiên cứu ung thư, biến đổi gen của thực vật+ Kỹ thuật tụ tinh trong ống nghiệm + Xác định virus gây bệnh trên động, thực vật -         Làm việc trong lĩnh vực môi trường: Bảo tồn động thực vật có nguy cơ tuyệt chủng, kiểm soát ô nhiễm và xử lý chất thải-         Làm việc tại các phòng thí nghiệm của các Sở nghiên cứu khoa học, các Viện nghiên cứu, trung tâm nghiên cứu,..-         Làm việc trong các phòng thí nghiệm khoa học pháp y như trong cơ quan cảnh sát. ( ví dụ: xác định DNA thong qua dấu vân tay)-         Làm việc trong các cơ quan quản lý, kiểm soát dịch bệnh ·        Cơ hội việc làm cao hay thấp cũng phải tùy thuộc vào thời điểm, nhu cầu xã hội, và quan trong hơn là ở chính khả năng của bạn.Chúc bạn thành côngLe Anh Thu</t>
+  </si>
+  <si>
+    <t>kinh thua thay co e la thi sinh tu do vi vay sinh thay co huong dan cho em cach viet ho so</t>
+  </si>
+  <si>
+    <t>Chào em!Em tham khảo kỹ trong cuốn Những điều cần biêt về tuyển sinh đại học cao đẳng năm 2013 nhé.PGĐ</t>
+  </si>
+  <si>
+    <t>Chào quý thầy cô. E đang học 12 và năm 2013 này dự tính thi vào ngành Lâm nghiệp cũa trường. Nhưng em không biết khi học xong thì sẽ làm nghề gì. Kính mong thầy cô hồi đáp sớm để em quyết định ngành thi. !! Em cảm ơn</t>
+  </si>
+  <si>
+    <t>chào em,Về mặt kiến thứcĐào tạo kỹ sư có hiểu biết toàn diện về mọi lĩnh vực hoạt động của ngành với những kiến thức về sinh thái học, lâm sinh, trồng rừng, điều tra, điều chế, bảo vệ, quản lý nguồn tài nguyên rừng với 03 hướng: lâm sinh, lâm nghiệp đô thị, lâm nghiệp xã hội.        Sinh viên có kiến thức cơ sở ngành về : Xã hội học, Xã hội học nông thôn, Sinh lý thực vật, Thống kê lâm nghiệp, Đất – lập địa, Thực vật rừng, sinh thái rừng, Khí tượng – thủy văn rừng;có kiến thức chuyên ngành về lĩnh vực lâm sinh: Kỹ thuật lâm sinh, Trồng rừng, Côn trùng lâm nghiệp, Bệnh hại rừng, Đo đạc và bản đồ, Đa dạng sinh học, Di truyền và giống cây rừng, Quản lý rừng bền vững, Kỹ thuật nhân giống, Lâm nghiệp đô thị, Điều tra rừng…Về mặt kỹ năngCác kỹ năng sinh viên tốt nghiệp có được như thực hiện được các nghiên cứu về về lĩnh vực lâm sinh; áp dụng và phát triển những kỹ thuật khai thác- tái sinh rừng, trồng rừng và nuôi dưỡng rừng, điều tra, đánh giá tài nguyên rừng, quy hoạch; chuyển giao tiến bộ khoa học kỹ thuật và công nghệ trong lĩnh vực lâm sinh; đề xuất, lựa chọn các giải pháp, cải tiến công nghệ nâng cao năng suất và chất lượng sản phẩm từ rừng; tham gia tập huấn, chuyển giao kỹ thuật, công nghệ chuyên ngành lâm sinhCơ hội việc làm Kỹ sư ngành lâm nghiệp có thể đảm trách công việc liên quan đến lĩnh vực lâm sinh: Các công ty, các doanh nghiệp lâm nghiệp; làm việc tại các trường, phòng Khoa học &amp; Công nghệ, các sở, phòng ban ở các tỉnh, huyện trong cả nước về lĩnh vực lâm nghiệp, khuyến nông, khuyến lâm; làm việc tại các viện điều tra qui hoạch, các trung tâm ứng dụng và triển khai lâm nghiệp, các trung tâm khuyến nông, khuyến lâm; giảng dạy ngành lâm nghiệp tại các trường đại học, cao đẳng và trung học chuyên nghiệp và các trường dạy nghề…Ngoài ra có thể làm chuyên gia tư vấn cho các chương trình, dự án về lĩnh vực phát triên nông lâm nghiệp và phát triển nông thôn các cấp.chúc em thành công</t>
+  </si>
+  <si>
+    <t>Thầy đăng giúp em thông tin tuyển dụng , cảm ơn thầy nhiều Nam Ánh Dương cần tuyển 02 nhân viên ( Nữ ) thiết kế cảnh quan - hoa viên Yêu cầu: có ý tưởng tốt trong việc thiết kế , Sử dụng thành thạo các phần mềm thiết kế, vẽ tốt 3D max , artlantis , triển khai bản vẽ Auto card , có am hiểu tốt về cây xanh Mô tả công việc: Tư vấn khách hàng , lên phối cảnh thiết kế cảnh quan cho các dự án bất động sản ( biệt thự, nhà phố, khu đô thị,...), triển khai bản vẽ thi công , hỗ trợ giám sát thi công theo bản vẽ . Mức lương: thỏa thuận tùy theo năng lực và kinh nghiệm. Nơi làm việc: Bình Thạnh, TPHCM Nộp hồ sơ trực tiếp tại lầu 2, 11C Nguyễn Hữu Cảnh , quận Bình Thạnh , TPHCM hoặc qua e-mail: vuonnhatoi.vn@gmail.com điện thoại : 08 - 62 588 188 ( Mr.Hùng )</t>
+  </si>
+  <si>
+    <t> Tôi sẽ đăng ngay để các em nộp hồ sơ cho anh.Thân mến,DQDiep</t>
+  </si>
+  <si>
+    <t>Năm nay em đang kí dự thi vào ngành kinh doanh nông nghiệp . Cho em hỏi tên ngành và chuyên ngành của ngành này để điền vào hồ sơ . Mong sớm nhận được câu trả lời của các thầy cô .</t>
+  </si>
+  <si>
+    <t>Em xem thông tin liên quan sau đây nhé:http://ts.hcmuaf.edu.vn/contents.php?ids=16476&amp;ur=tsChúc em thành công va hy vọng sẽ gặp em ở Trường dH Nông Lâm TPHCM</t>
+  </si>
+  <si>
+    <t>em muon theo nghanh ke toan.dai hoc nong lam tphcm co tuyen sinh nganh nay khong?va co hoi viec lam sau khi ra truong nhu the nao</t>
+  </si>
+  <si>
+    <t> Trường ĐH Nông Lâm TPHCM có tuyển sinh ngành Kế toán. Công việc ngành này (sau khi tốt nghiệp) như sau: Đào tạo cử nhân kế toán nắm vững kiến thức cơ bản về kinh tế nói chung, chuyên môn sâu về kế toán, về kiểm toán để có thể đảm trách các phần hành kế toán; tổng hợp phân tích số liệu kế toán, tham mưu đề xuất các giải pháp phục vụ yêu cầu quản trị, hoạch định chính sách tài chính tại các tổ chức kinh tế;tổ chức công tác kế toán và kiểm soát nội bộ. Với trình độ Anh văn đáp ứng chuẩn đầu ra chung của Trường hoặc TOEIC đạt 450 điểm, có khả năng giao tiếp và xử lý nghiệp vụ kế toán, kiểm toán bằng tiếng Anh.            Khi tốt nghiệp sinh viên có các kỹ năng như sử dụng thành thạo một số phần mềm kế toán; kỹ năng lãnh đạo,kỹ năng quản lý thời gian, tư duy sáng tạo, xử lý hiệu quả công tác chuyên môn; kỹ năng thuyết trình, trình bày ý tưởng, kỹ năng viết báo cáo, kỹ năng làm việc theo nhóm, kỹ năng giao tiếp. Việc làm sau khi tốt nghiệp, có khả năng làm việc tại:+ các cơ quan quản lý nhà nước về kế toán kiểm toán, tài chính ngân hàng và viện nghiên cứu kinh tế, tài chính ,ngân hàng;+ Các định chế tài chính trung gian (các ngân hàng thương mại, các quỹ đầu tư thuộc các khu vực, thành phần kinh tế trong ngoài nước, trung tâm giao dịch chứng khoán);+ Các tổ chức kinh tế tài chính;+ Các đơn vị tư vấn kế toán, tài chính, công ty đầu tư, tư vấn dịch vụ kế toán kiểm toán trong và ngoài nước.Bên cạnh bậc đại học, Trường còn tuyển bậc Cao đẳng Kế toán (không tổ chức thi, chỉ xét tuyển NV2 từ kết quả thi Đại học).Thân</t>
+  </si>
+  <si>
+    <t>Cho e hoj thoj jan nop ho so dkdt dh taj truog la ngay nao ah?</t>
+  </si>
+  <si>
+    <t>Từ ngày 12-19/4/2013 em nhé.</t>
+  </si>
+  <si>
+    <t>Mình muốn hỏi xem: năm 2012, kết quả trúng tuyển hệ Cao học đối với thí sinh sẽ học tại Phân hiệu Ninh Thuận chuyên ngành Quản lý tài nguyên và môi trường là bao nhiêu điểm?điểm trúng tuyển được tính như thế nào? Môn tiếng anh đạt bao nhiêu điểm thì mới trúng tuyển?</t>
+  </si>
+  <si>
+    <t> Chào bạn!Thông tin tuyển sinh Sau đại học năm 2013 đã được đăng tải trên website của Phòng Đào tạo Sau đại học http://pgo.hcmuaf.edu.vn/contents.php?gid=3284&amp;ur=pgo. Năm 2012, điều kiện bắt buộc tất cả các thí sinh phải có điểm thi 3 môn trên 5 điểm/môn  thi mới xét. Lấy từ cao đến thấp theo chỉ tiêu.Chi tiết liên hệ số điện thoại: 08.38963339.Trân trọng.</t>
+  </si>
+  <si>
+    <t>em học khá lại không giỏi sinh và hoá em có thể thi ngành kỉ thuật mội truờng không dạ?</t>
+  </si>
+  <si>
+    <t>Chào em!Ngành Kỹ thuật môi trường thi cả 2 khối A và B, năm 2011 và 2012 điểm chuẩn là khối A 13, khối B 15.Chúc em thành công!PGĐ</t>
+  </si>
+  <si>
+    <t>cho e hỏi nếu thi ngành lâm nghiệp thuộc khoa lâm nghiệp thì sau này sẽ làm gì ?</t>
+  </si>
+  <si>
+    <t>Dạ thưa thầy (cô)cho em hỏi ngành quản lí môi trường thì làm những công việc gì và mã ngành là gì ạ....em xin cám ơn :)</t>
+  </si>
+  <si>
+    <t>Em xem thông tin chi tiết ở đâyhttp://env.hcmuaf.edu.vn/contents.php?ids=8753&amp;ur=envMã ngành QLTN&amp;MT là D850101Khoa MTTN</t>
+  </si>
+  <si>
+    <t>hoc phi nganh thu y la bao nhieu</t>
+  </si>
+  <si>
+    <t> Học phí các ngành được tính theo tín chỉ. Mỗi tín chỉ là 122.000đ (năm 2012-2013).Thân </t>
+  </si>
+  <si>
+    <t>Cho e hoii nganh cntp nam 2013 co xet tuyen nganh hoc tieng viet khong a.va hoc phi la bao nhieu</t>
+  </si>
+  <si>
+    <t>chào em,Ngành CNTP của trường ĐH Nông Lâm TP.HCM có 4 chuyên ngành (3 chuyên ngành tiếng việt và 1 chuyên ngành tiếng anh). Vì vậy, em hoàn toàn có thể đăng ký vào 1 trong 4 ngành này.học phí chương trình tiếng việt dao động từ 4.000.000đ - 4.800.000đ/ năm học/ 10 tháng.vì vậy, em hoàn toàn có thể đăng ký dự tuyển vào các ngành này.chúc em thành công,</t>
+  </si>
+  <si>
+    <t>xin hoi nam 2013 nay co tuyen sinh khoi a1 va d1 khong</t>
+  </si>
+  <si>
+    <t>Chào em!Năm 2003, trường có tuyển sinh khối D1 ở một số ngành nhưng không tuyển khối A1, em nhé!Chúc em thành công!PGĐ</t>
+  </si>
+  <si>
+    <t>Cho em hoi nganh ngon ngu anh co duoc dao tao o truong dai hoc nong lam tphcm hay ko va diem chuan la bao nhieu a</t>
+  </si>
+  <si>
+    <t> Thân chào em!Ngành Ngôn ngữ Anh có đào tạo tại trường em nhé. Điểm chuẩn là năm 2012 là 17,5đ khối D1 (Anh văn đã nhân hệ số)</t>
+  </si>
+  <si>
+    <t>cho em hỏi về khoa Công Nghệ sinh học thì cơ hội việc làm sau khi ra trường và học phí của trường ạ.em xin cám ơn ạ</t>
+  </si>
+  <si>
+    <t> Phương thân;-         Cơ hội nghệ nghiệp đối với sinh viên sau khi tốt nghiệp ngành Công nghệ Sinh học:+ Bệnh lý+ tư vấn về di truyền+ Phát triển sản phẩm cho mục đích trương mại+ Nghiên cứu và đào tạo+ Sản xuất dược phẩm: Insulin, hormone tăng trưởng, Vắc xin+ Các lĩnh vực truyền thống: rượu, bia…+ Các lĩnh vực công nghệ sinh học hiện đại: nghiên cứu tế bào gốc, nghiên cứu ung thư, biến đổi gen của thực vật+ Kỹ thuật tụ tinh trong ống nghiệm+ Xác định virus gây bệnh trên động, thực vật -         Làm việc trong lĩnh vực môi trường: Bảo tồn động thực vật có nguy cơ tuyệt chủng, kiểm soát ô nhiễm và xử lý chất thải-         Làm việc tại các phòng thí nghiệm của các Sở nghiên cứu khoa học, các Viện nghiên cứu, trung tâm nghiên cứu,..-         Làm việc trong các phòng thí nghiệm khoa học pháp y như trong cơ quan cảnh sát. ( ví dụ: xác định DNA thong qua dấu vân tay)-         Làm việc trong các cơ quan quản lý, kiểm soát dịch bệnh        - Học phí: bạn có thể tham khảo trang web: http://pkhtc.hcmuaf.edu.vn/-       Chúc bạn thành công.      </t>
+  </si>
+  <si>
+    <t>cho em hỏi trường mình mã trường là bao nhiu thế ạ</t>
+  </si>
+  <si>
+    <t>Chào em!Mã Trường Đại Học Nông Lâm TP. Hồ Chí Minh là NLSChúc em thành công!PGĐ</t>
+  </si>
+  <si>
+    <t>chao thay co! Em dinh thi nganh THU' Y cua truong nhung khong biet neu dau roi thi se hoc tai truong ngoai Thu Duc, hay la hoc o co so khac hay cho nao khac cua truong a!</t>
+  </si>
+  <si>
+    <t>Chào em!Trường chỉ có cơ sở chính tại Thủ Đức, TP. Hồ Chí Minh và 2 phân hiệu ở Gia Lai và Ninh Thuận. Nếu em đăng ký thi vào Trường ở TP. HCM thì em sẽ học tại Trường, P. Linh Trung, Q. Thủ Đức, TP. Hồ Chí Minh.Chúc em vui vẻ!PGĐ</t>
+  </si>
+  <si>
+    <t>truong dh nong lam thi tuyen tai quy nhon duoc khong</t>
+  </si>
+  <si>
+    <t>chào em,Có hệ thống cụm thi tại Qui Nhơn em nhéThân ái</t>
+  </si>
+  <si>
+    <t>Em định thi vào ngành quản trị kinh doanh của trườg mình.nhưng ngành này đang có nguy cơ bị dư thừa nhiều.em rất lo không biết học ngành này sau này nhà trườg có hỗ trợ giúp sv tìm việc làm sau khj tốt ngjệp k ạk</t>
+  </si>
+  <si>
+    <t> Theo các thông tin trên báo thì nhóm ngành Kinh tế nói chung đang có nguy cơ bị thừa nhân lực. Tuy nhiên nhu cầu thực của xã hội về nhân lực về nhóm ngành kinh tế vẫn rất cao. Tuy vậy, điều quan trọng nhất em cần cân nhắc ở đây nên là việc em có thích ngành quản trị kinh doanh không? nếu em không thực sự thích thì nên cân nhắc lại việc chọn ngành của mình.Nếu em thực sự thích ngành quản trị kinh doanh thì cứ yên tâm dự thi. Có kết quả học tốt và quá trình rèn luyện tốt em sẽ được nhà trường (cụ thể là TT HTSV-QHDN) hỗ trợ giới thiệu việc làm.Thân </t>
+  </si>
+  <si>
+    <t>E thi khốj D (là nữ nhé) tầm khoảng 14-16đ mong thầy cô tư vấn giúp e nên học ngành nào của trườg để sau này dễ kiếm vjệc làm ạk.</t>
+  </si>
+  <si>
+    <t>Chào em!Năm 2013 Trường chỉ tuyển sinh khối A, B và D1 mà không tuyển sinh khối D em nhé.Chúc em thành công!PGĐ</t>
+  </si>
+  <si>
+    <t>anh(chị)hãy làm rõ những giá trị lý luận và thực tiễn của tư tưởng hồ chí minh đối với cách mạng việt nam .ý nghĩa đối với công cuộc đổi mới đất nước ta hiện nay.em rất mong thầy cô trả lời sớm giúp em.em xin chân thành cảm ơn</t>
+  </si>
+  <si>
+    <t> chuyển</t>
+  </si>
+  <si>
+    <t>Thua cac thay co trong truong dai doc nong lam tp.HCM em muon biet khi em thi nganh thu y khoi A co khac gi so voi khoi B khong a?vi em thay nganh nay co ca khoi a va b em khong biet nen thi khoi nao thi tot hon?mong thay co tu van giup em.</t>
+  </si>
+  <si>
+    <t>Chào em!Ngành Thú y tuyển sinh cả 2 khối A và B nhưng vào học cùng một chương trình còn em thi khối nào tốt hơn tuỳ thuộc vào khả năng của em nhé.Chúc em thành công!PGĐ</t>
+  </si>
+  <si>
+    <t>Năm nay em sẽ thi trường đại học Nông Lâm tp HCM em đang băn khoăn giữa HCM hay phân hiệu Gia Lai nhưng em rất muốn học ở HCM nhưng em sợ rớt quá. Em muốn hỏi em thi đh nông lâm tp hcm rồi nếu rớt thì rút hồ sơ nộp về đh nông lâm HCM phân hiệu Gia Lai có được không hay là thi điểm thấp thì trường sẽ tự đưa về Gia Lai?</t>
+  </si>
+  <si>
+    <t>Chào em!Nếu em không đủ điểm để vào ĐH Nông Lâm TP. HCM tại cơ sở chính ở TP. Hồ Chí Minh thì em có thể đăng ký xét tuyển nguyện vọng bổ sung vào ĐH Nông Lâm TP. HCM tại phân hiệu Gia Lai nếu em đáp ứng đủ yêu cầu và ngành đó có xét tuyển nguyện vọng bổ sung.Chúc em thành công!PGĐ</t>
+  </si>
+  <si>
+    <t>trường có tổ chức thi không dạ</t>
+  </si>
+  <si>
+    <t>Chào em!Trường có tổ chức thi Đại học theo 2 đợt chung của Bộ GD - ĐT em nhé.Chúc em thành công!PGĐ</t>
+  </si>
+  <si>
+    <t>Cho tôi hỏi nếu đăng kí vào khoa lâm nghiệp chuyên ngành nông lâm kết hợp thì chỉ tiêu lấy bao nhiêu thí sinh và tỉ lệ chọi của năm 2012 là bao nhiêu?</t>
+  </si>
+  <si>
+    <t>Chào bạn!Chỉ tiêu năm 2013 của ngành Nông lâm kết hợp là 50 chỉ tiêu, điểm chuẩn năm 2010, 2011 và 2012 là khối A: 13, khối B: 14.Chúc bạn thành công!PGĐ</t>
+  </si>
+  <si>
+    <t>Cho em hỏi ở trường Đại học Nông Lâm có hệ cao đăng chính quy của ngành Quảng Trị Kinh Doanh không?! hướng dẫn em chi tiết với!</t>
+  </si>
+  <si>
+    <t>Chào em!Trường không có hệ cao đẳng ngành Quản trị kinh doanh em nhé.Chúc em vui vẻ!PGĐ</t>
+  </si>
+  <si>
+    <t>trg dh nông lâm mà ngành quản trị kinh doanh khi đkdt là ngành với chuyên ngành là 1 hả thầy</t>
+  </si>
+  <si>
+    <t>Chào em!Ngành Quản trị kinh doanh có mã đăng ký là D340101 chung cho cả 3 chuyên ngành là:- Quản trị kinh doanh- Quản trị kinh doanh thương mại- Quản trị tài chínhKhi đăng ký dự thi em có thể ghi tên và mã ngành, sau khi học 1 năm em sẽ đăng ký học theo chuyên ngành sau.Chúc em thành công!PGĐ</t>
+  </si>
+  <si>
+    <t>cho hỏi . ngành công nghệ thực phẩm của năm ngoái lấy mấy điểm và tỉ lệ chọi là bao nhiêu</t>
+  </si>
+  <si>
+    <t> Công nghệ Thực phẩm năm 2012 có điểm chuẩn là 13.5 (khối A) và 15.5 (Khối b).Thân </t>
+  </si>
+  <si>
+    <t>Cho em hỏi em muốn thi vào trường thì em phải trực tiếp lên trường thi hay em có thể mượn trường khác để thi rồi lấy kết quả xét qua được không,và nếu như trường thiếu chỉ tiêu ngành đó thì mới xét đến hồ sơ của em đúng không? Vậy em nên thi ở trường là tốt hơn đúng không?</t>
+  </si>
+  <si>
+    <t>Chào em!Trường Đại học Nông Lâm TP. HCM là trường có tổ chức thi tuyển. Vì vậy, để thi vào trường thì em phải đăng ký và dự thi tại trường em nhé.Chúc em thành công!PGĐ</t>
+  </si>
+  <si>
+    <t>Cho em hỏi khi nào có bảng điểm gốc học kỳ I 2012 - 2013 vậy ạ!</t>
+  </si>
+  <si>
+    <t> Bảng gốc điểm học kỳ 1, trung tâm Khảo thí đã nộp về cho Phòng đào tạo. Việc Scan bảng điểm gốc lên trang web do Phòng đào tạo đảm nhận. Em liên hệ trực tiếp với Phòng đào tạo nhé !</t>
+  </si>
+  <si>
+    <t>E muon hoi la truong dai hoc nong lam co to chuc thi khoi a1 k?va diem trung tuyen nhu the nao.</t>
+  </si>
+  <si>
+    <t>Chào em!Trường Đại Học Nông Lâm TP. HCM không tuyển sinh khối A1 em nhé.Chúc em vui vẻ!PGĐ</t>
+  </si>
+  <si>
+    <t>Cho em hoỉ mã trường dkdt cuả tphcm và điểm chuẩn nghành quản lí đất đai năm nay có giống năm 2012 không ạ hay sao ạ</t>
+  </si>
+  <si>
+    <t> Điểm chuẩn của từng năm có thể giống hoặc khác nhau. Thường thì sau ngày 5/8, khi Bộ công bố điểm sàn thì các trường sẽ dựa vào đó và kết quả thi thực tế của thí sinh mà công bố điểm chuẩn. Điểm chuẩn có thể thay đổi theo từng năm.Thân Thân</t>
+  </si>
+  <si>
+    <t>Em muôn hỏi khoa nông học của trường Đại ọc Nông Lâm có tuyển sinh con gái hay không?</t>
+  </si>
+  <si>
+    <t>Xin chào,Theo quy định của Pháp luật, không được phân biệt giới tính, ngay cả trong tuyển sinh. Do đó, Khoa Nông học tuyển cả nam va nữ sinh viên. Tuy nhiên, trên thực tế, trong một số lĩnh vực, nữ hơi khó tìm việc! Tất nhiên, năng lực của ứng viên là quan trọng nhất! Chúc thành công!Võ Thái Dân        </t>
+  </si>
+  <si>
+    <t>cho em hỏi học công nghệ sinh học thì nên chọn chuyên ngành như thế nào thì phù hợp với nữ.điểm chuẩn của ngành công nghệ sinh học năm 2013 dự kiến có tăng so với mọi năm không ạ?</t>
+  </si>
+  <si>
+    <t> Chào em;Ngành Công nghệ Sinh học cũng như các ngành học tại trường ĐH Nông Lâm gần như không có ngành nào chuyên biệt cho nam hay nữ. Em có thể chọn ngành Công nghệ Sinh học hay Công nghệ Sinh học Môi trường đều thuộc Bộ môn Công nghệ Sinh học Trường ĐH Nông Lâm. Còn điểm chuẩn Ngành Công nghệ Sinh học năm 2013 vẫn chưa có quyết định chính thức, em có thể tham khảo điểm chuẩn của các năm trước để có hướng học tập tích cực hơn em nhé! Chúc em học và thi có kết quả tốt!To Thi Nha Tram</t>
+  </si>
+  <si>
+    <t>Cho em hỏi nếu học ngành quản trị kinh doanh của trường mình sau này có được nhà trường hỗ trợ tìm việc làm sau khi tốt nghiệp k ạk.e tính thi vào ngành này của trường nhưng sinh viên học ngành này đang bị dư thừa nên em rất lo.hjx...</t>
+  </si>
+  <si>
+    <t> Có. Các sinh viên của trường đều được hỗ trợ tìm việc. Vì vậy, ngay khi  em vào học, em có tham gia các câu lạc bộ học thuật và một số hoạt động của Trung tâm Hỗ trợ Sinh viên- Quan hệ Doanh nghiệp để tập làm quen và tiếp cận với các thông tin thực hành, thực tập của sinh viên trường.Bên cạnh đó, cố gắng học tập tốt để có kết quả tốt thì em sẽ có nhiều cơ hội việc làm và được giới thiệu của Trung tâm Hỗ trợ sinh viên- Quan hệ Doanh nghiệp trường.Thân </t>
+  </si>
+  <si>
+    <t>vậy năm nay trường có tổ chức thi ở cụm thi Quy Nhơn hay không</t>
+  </si>
+  <si>
+    <t> Xin chào,Theo quy định của Bộ, năm nay trường Đại học Nông Lâm tp. HCM vẫn tiếp tục tổ chức thi tại Cụm Quy Nhơn. Hẹn gặp em ở Quy Nhơn! Chúc thành công!Võ Thái Dân          </t>
+  </si>
+  <si>
+    <t>kinh thua thay,co em muon hoi hoc phi cua truong dh nong lam tphcm nam 2013 nhu the nao</t>
+  </si>
+  <si>
+    <t> Hiện nay chưa có quy định về học phí năm học 2013-2014 em ạ. Năm 2012-2013 là 122.000 đ.thân </t>
+  </si>
+  <si>
+    <t>Thầy cô cho em hỏi: Em có nguyện vọng thi vào ngành ngôn ngữ anh, khi em xem trên cuốn cẩn nang tuyển sinh thì ngành nào cũng có số chỉ tiêu tại sao chỉ có ngôn ngữ anh là không có? Vậy trường mi2nnh lấy chỉ tiêu ngành ngôn ngữ anh năm nay bao nhiêu? Cảm ơn các thầy cô</t>
+  </si>
+  <si>
+    <t>Chào em!Năm 2013 chỉ tiêu tuyển sinh của ngành Ngôn ngữ Anh là 120 chỉ tiêu.Chúc em thành công!PGĐ</t>
+  </si>
+  <si>
+    <t>Thầy ơi! Cho em biết cách chuyển file Autucad2010 sang Microstation.Em đã thực hiện cách chuyển là Vào file-&gt;Impt&gt;luu (*.dgn)mà không được.Nó báo không xác định tên file đó. Từ Microstation em chuyển qua Autucad được nhưng bị lỗi Font chữ cách chuyển Font chữ lại như thế nào dậy thầy. Nhờ quý thầy hỗ trợ hộ em. Em chân cảm ơn.</t>
+  </si>
+  <si>
+    <t>em liên hệ trực tiếp 0987 177210 gặp anh Quan để hướng dẫn chi tiết nhé, chào em.</t>
+  </si>
+  <si>
+    <t>cho em hỏi mã trường và mã nghành kĩ thuật cơ điện tử của trường mình là gì?</t>
+  </si>
+  <si>
+    <t>Chào em!Mã trường Đại Học Nông Lâm TP. Hồ Chí Minh là NLS, mã ngành của ngành Công nghệ kỹ thuật cơ điện tử là D510203. Chi tiết em có thể xem trong cuốn Những điều cần biết về tuyển sinh đại học, cao đẳng năm 2013 em nhé.Chúc em thành công!PGĐ</t>
+  </si>
+  <si>
+    <t>Em muốn hỏi em có được dùng điểm thi cao đẳng để xét vào hệ cao đẳng của trường không hay chỉ có điểm thi đại học mới được xét thôi ạ???</t>
+  </si>
+  <si>
+    <t>Chào em!Hệ Cao đẳng của trường chỉ xét tuyển nguyện vọng bổ sung dựa trên kết quả thi tuyển đại học em nhé.Chúc em thành công!PGĐ</t>
+  </si>
+  <si>
+    <t>em xem trong thong tin tuyen sinh thay hoc phi nganh thu y rat cao. cho em hoi ly do</t>
+  </si>
+  <si>
+    <t>Chào em, Không biết em xem thông tin ở đâu về học phí "rất cao" mà em đề cập.Nhìn chung ngành này cần một lượng lớn thực hành nên dĩ nhiên chi phí cho ngành sẽ cao. Tuy nhiên Thú y hiện nay vẫn được xếp vào ngành nông nghiệp do đó việc thu học phí cao là không thể. Có thể em xem ở mục thú y tiên tiến nên mới có mức học phí cao. Đây là chương trình đào tạo bằng tiếng Anh theo chương trình của ĐH Queensland ÚcThân  </t>
+  </si>
+  <si>
+    <t>trường có ngành công nghệ sinh không</t>
+  </si>
+  <si>
+    <t> http://ts.hcmuaf.edu.vn/contents.php?ids=16476&amp;ur=ts</t>
+  </si>
+  <si>
+    <t>ngành quản lí tài nguyên môi trường sau khi ra trường xin việc có dễ không???? và nên xin việc ở đâu</t>
+  </si>
+  <si>
+    <t>Em xem thông tin chi tiết tại đây http://env.hcmuaf.edu.vn/contents.php?ids=8753&amp;ur=envKhoa MTTN</t>
+  </si>
+  <si>
+    <t>Thầy ơi, cho em xin hỏi em có thể đăng ký trường mình hai ngành cùng 1 khối được không vậy thầy??</t>
+  </si>
+  <si>
+    <t>Chào em!em có thể đăng ký 2 ngành cùng một khối nhưng chỉ được thi một ngành vì đợt thi chung theo khối.chúc em vui vẻ!PGĐ</t>
+  </si>
+  <si>
+    <t>em thấy năm nay hs có xu hướng đi CNTP nhiều lắm vậy cô có thể cho em biết là ngành này thực chất là làm nhửng công việc gì</t>
+  </si>
+  <si>
+    <t>chào em,Sau khi hoàn thành chương trình ngành Công nghệ thực phẩm của trường Đại học nông lâm tphcm, em có đủ kiến thức để trở thành 1 kỹ sư tại các doanh nghiệp, công ty, viện nghiên cứu, trường học,...Điều quan trọng em có yêu thích công việc để tham gia vào lực lượng lao động trẻ. Tại các doanh nghiệp em có thể làm vị trí QA, QC, phòng marketing, phòng R&amp;D,...Nếu em có vốn, em có thể tự mở CSSX, DNTN,....  </t>
+  </si>
+  <si>
+    <t>học ngành CNTP trường nông lâm TPHCM có tốt không</t>
+  </si>
+  <si>
+    <t>chào em,Khoa công nghệ thực phẩm trường Đại học Nông Lâm TP.HCM tự hào là một trong 3 trường phía Nam mở ngành này sớm. Ngoài ra tự hào là trường đầu tiên của cả nước có chương trình tiên tiến ngành Công nghệ thực phẩm học bằng tiếng anh.  Với đội ngũ giảng dạy của Khoa tốt nghiệp từ các trường nổi tiếng như Đại học Queensland, ĐH Newcastle, ĐH New South Wales,... và trang thiết bị, cơ sở vật chất hướng đến chuẩn mực quốc tế sẽ cung cấp, hướng dẫn em các kiến thức để có thể trở thành một kỹ sư công nghệ thực phẩm thế hệ mới. </t>
+  </si>
+  <si>
+    <t>Cho e hỏi là có được đăng kí dự thi 2 trường mà cùng khối ko ạ.cụ thể là e đăng kí 1 trường quân sự,và 1trường khác đều là khối A.e biết là k thể thj cả 2 trường được.đến lúc thj thì e chỉ thj 1 trường như thế có được không ạ.khốj B thj e cũng đăng kí rồj.e đã hỏj 1 vàj ngườj nhưng k aj trả lờj câu này hết toàn bảo đăng kí 1trường khốj A,1trường khốj B nhưng ý e hỏj có phảj thế đâu nên e xjn 1 câu trả lờj hay ạ</t>
+  </si>
+  <si>
+    <t>Chào em!Theo quy chế, em có quyền được đăng ký nhiều trường khác nhau, kể cả cùng khối nhưng mỗi đợt thi em chỉ được thi ở một trường duy nhất. Lúc em chưa chọn được trường thì em có thể đăng ký nhiều trường nhưng đến lúc thi thì em sẽ chọn một trường mà em yêu thích để thi thôi nhé.Chúc em vui vẻ!PGĐ</t>
+  </si>
+  <si>
+    <t>xin các thầy cô cho biết ngành kĩ thuật môi trường khác j so với ngành cn môi trường . Cơ hội làm việc ở đâu và chuyên về cái j. xin hết!</t>
+  </si>
+  <si>
+    <t>Em xem thông tin chi tiết tại đây http://env.hcmuaf.edu.vn/contents.php?gid=1626&amp;ur=envKhoa MTTN</t>
+  </si>
+  <si>
+    <t>Em thuộc khu vực 2- nông thôn. em muốn hỏi em có được miễn giảm học phí không? nếu có thì cho em biết thủ tục làm miễn giảm. Cảm ơn Thầy(cô) nhiều.</t>
+  </si>
+  <si>
+    <t> Nếu chỉ là khu vực 2 nông thôn thì không được xét miễ giảm.Thân </t>
   </si>
 </sst>
 </file>
@@ -561,90 +1194,954 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>123</v>
+      </c>
+      <c r="B66" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>132</v>
+      </c>
+      <c r="B71" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>134</v>
+      </c>
+      <c r="B72" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>136</v>
+      </c>
+      <c r="B73" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>138</v>
+      </c>
+      <c r="B74" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>140</v>
+      </c>
+      <c r="B75" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>142</v>
+      </c>
+      <c r="B76" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>143</v>
+      </c>
+      <c r="B77" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>147</v>
+      </c>
+      <c r="B79" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>149</v>
+      </c>
+      <c r="B80" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>151</v>
+      </c>
+      <c r="B81" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>155</v>
+      </c>
+      <c r="B83" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>157</v>
+      </c>
+      <c r="B84" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>159</v>
+      </c>
+      <c r="B85" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>161</v>
+      </c>
+      <c r="B86" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>163</v>
+      </c>
+      <c r="B87" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>165</v>
+      </c>
+      <c r="B88" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>167</v>
+      </c>
+      <c r="B89" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>169</v>
+      </c>
+      <c r="B90" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>171</v>
+      </c>
+      <c r="B91" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>173</v>
+      </c>
+      <c r="B92" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>175</v>
+      </c>
+      <c r="B93" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>177</v>
+      </c>
+      <c r="B94" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>179</v>
+      </c>
+      <c r="B95" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>181</v>
+      </c>
+      <c r="B96" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>183</v>
+      </c>
+      <c r="B97" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>185</v>
+      </c>
+      <c r="B98" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>187</v>
+      </c>
+      <c r="B99" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>189</v>
+      </c>
+      <c r="B100" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>191</v>
+      </c>
+      <c r="B101" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>193</v>
+      </c>
+      <c r="B102" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>195</v>
+      </c>
+      <c r="B103" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>197</v>
+      </c>
+      <c r="B104" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>199</v>
+      </c>
+      <c r="B105" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>201</v>
+      </c>
+      <c r="B106" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>203</v>
+      </c>
+      <c r="B107" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>205</v>
+      </c>
+      <c r="B108" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>207</v>
+      </c>
+      <c r="B109" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>209</v>
+      </c>
+      <c r="B110" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>211</v>
+      </c>
+      <c r="B111" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>212</v>
+      </c>
+      <c r="B112" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>214</v>
+      </c>
+      <c r="B113" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>216</v>
+      </c>
+      <c r="B114" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>218</v>
+      </c>
+      <c r="B115" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>220</v>
+      </c>
+      <c r="B116" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>222</v>
+      </c>
+      <c r="B117" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>224</v>
+      </c>
+      <c r="B118" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>226</v>
+      </c>
+      <c r="B119" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>228</v>
+      </c>
+      <c r="B120" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>230</v>
+      </c>
+      <c r="B121" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>232</v>
+      </c>
+      <c r="B122" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>234</v>
+      </c>
+      <c r="B123" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>236</v>
+      </c>
+      <c r="B124" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>238</v>
+      </c>
+      <c r="B125" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>240</v>
+      </c>
+      <c r="B126" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>242</v>
+      </c>
+      <c r="B127" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>244</v>
+      </c>
+      <c r="B128" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>246</v>
+      </c>
+      <c r="B129" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>248</v>
+      </c>
+      <c r="B130" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>250</v>
+      </c>
+      <c r="B131" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>252</v>
+      </c>
+      <c r="B132" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>254</v>
+      </c>
+      <c r="B133" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>256</v>
+      </c>
+      <c r="B134" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>258</v>
+      </c>
+      <c r="B135" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>260</v>
+      </c>
+      <c r="B136" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>262</v>
+      </c>
+      <c r="B137" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>264</v>
+      </c>
+      <c r="B138" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>266</v>
+      </c>
+      <c r="B139" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>268</v>
+      </c>
+      <c r="B140" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>270</v>
+      </c>
+      <c r="B141" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>272</v>
+      </c>
+      <c r="B142" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>274</v>
+      </c>
+      <c r="B143" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>276</v>
+      </c>
+      <c r="B144" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>278</v>
+      </c>
+      <c r="B145" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>280</v>
+      </c>
+      <c r="B146" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>282</v>
+      </c>
+      <c r="B147" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>284</v>
+      </c>
+      <c r="B148" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>286</v>
+      </c>
+      <c r="B149" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>288</v>
+      </c>
+      <c r="B150" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>290</v>
+      </c>
+      <c r="B151" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>292</v>
+      </c>
+      <c r="B152" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
